--- a/backend/data/Datenarten_BP6_6_Berechnung5 neueWerte.xlsx
+++ b/backend/data/Datenarten_BP6_6_Berechnung5 neueWerte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdrianWild\Dev\Benchmark\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F4F708-E2E9-44F8-AAEC-C1DB85AEDED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B29E3D-0D4F-4E7A-90F9-66623CDB3487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis" sheetId="1" r:id="rId1"/>
@@ -3447,7 +3447,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3532,6 +3532,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -3577,7 +3583,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3674,6 +3680,8 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -15176,8 +15184,8 @@
   </sheetPr>
   <dimension ref="A1:H308"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16731,7 +16739,7 @@
       <c r="B157" t="s">
         <v>693</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="66">
         <v>1</v>
       </c>
       <c r="D157" t="s">
@@ -16742,7 +16750,7 @@
       <c r="B158" t="s">
         <v>694</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="67">
         <v>10</v>
       </c>
       <c r="D158" s="39" t="s">
@@ -18790,8 +18798,8 @@
   </sheetPr>
   <dimension ref="A1:O316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K90" sqref="K90"/>
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/backend/data/Datenarten_BP6_6_Berechnung5 neueWerte.xlsx
+++ b/backend/data/Datenarten_BP6_6_Berechnung5 neueWerte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdrianWild\Dev\Benchmark\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B29E3D-0D4F-4E7A-90F9-66623CDB3487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4683F305-5557-4835-A502-8C28960DD681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis" sheetId="1" r:id="rId1"/>
@@ -3350,7 +3350,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3445,6 +3445,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="16">
@@ -3583,7 +3588,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3682,6 +3687,9 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -4018,13 +4026,13 @@
                   <c:v>3431.9679999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6597.268597013026</c:v>
+                  <c:v>107445.33717529365</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>42911.19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>356059.55291732773</c:v>
+                  <c:v>157135.5514773278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4637,10 +4645,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6587.9993170130256</c:v>
+                  <c:v>100934.96417324306</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.2692799999999984</c:v>
+                  <c:v>6510.3730020505955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5098,10 +5106,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3023.642172523962</c:v>
+                  <c:v>93035.143769968054</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>481.71813986510466</c:v>
+                  <c:v>4817.181398651046</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3082.639004623959</c:v>
@@ -5343,13 +5351,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.1684210526315777</c:v>
+                  <c:v>6470.9945121135052</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49098105263157893</c:v>
+                  <c:v>38.895346807656267</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60987789473684206</c:v>
+                  <c:v>0.48314312943381071</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -5482,13 +5490,13 @@
                       <c:formatCode>0.00%</c:formatCode>
                       <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>0.88123576508979973</c:v>
+                        <c:v>0.99395142337855491</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>5.2968628915253287E-2</c:v>
+                        <c:v>5.9743653390374497E-3</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>6.5795605994946979E-2</c:v>
+                        <c:v>7.4211282407572247E-5</c:v>
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>0</c:v>
@@ -5610,13 +5618,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.35087719298245612</c:v>
+                  <c:v>0.89233926738946145</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42105263157894735</c:v>
+                  <c:v>0.10708071208673539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22807017543859648</c:v>
+                  <c:v>5.8002052380314994E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -5732,13 +5740,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.48499999999999993</c:v>
+                  <c:v>0.48500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9152000000000001E-2</c:v>
+                  <c:v>2.9152000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6211500000000001E-2</c:v>
+                  <c:v>3.6211500000000004E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -11367,26 +11375,26 @@
       <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.26953125" style="2" customWidth="1"/>
     <col min="2" max="2" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="2"/>
+    <col min="3" max="3" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" style="2"/>
     <col min="6" max="6" width="20" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="2"/>
-    <col min="11" max="11" width="12.7109375" style="2" customWidth="1"/>
-    <col min="12" max="13" width="11.28515625" style="2"/>
-    <col min="14" max="15" width="11.28515625" style="3"/>
-    <col min="16" max="16" width="11.28515625" style="5"/>
-    <col min="17" max="16384" width="11.28515625" style="3"/>
+    <col min="7" max="7" width="15.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" style="2"/>
+    <col min="11" max="11" width="12.7265625" style="2" customWidth="1"/>
+    <col min="12" max="13" width="11.26953125" style="2"/>
+    <col min="14" max="15" width="11.26953125" style="3"/>
+    <col min="16" max="16" width="11.26953125" style="5"/>
+    <col min="17" max="16384" width="11.26953125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="7" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -11445,7 +11453,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -11471,7 +11479,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -11491,7 +11499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
@@ -11517,7 +11525,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
@@ -11537,7 +11545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="10" t="s">
         <v>26</v>
       </c>
@@ -11563,7 +11571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
@@ -11583,7 +11591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="10" t="s">
         <v>31</v>
       </c>
@@ -11603,7 +11611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="10" t="s">
         <v>425</v>
       </c>
@@ -11626,7 +11634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="10" t="s">
         <v>34</v>
       </c>
@@ -11652,7 +11660,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="10" t="s">
         <v>35</v>
       </c>
@@ -11678,7 +11686,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="10" t="s">
         <v>36</v>
       </c>
@@ -11704,7 +11712,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="10" t="s">
         <v>37</v>
       </c>
@@ -11727,7 +11735,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="10" t="s">
         <v>382</v>
       </c>
@@ -11750,7 +11758,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="10" t="s">
         <v>41</v>
       </c>
@@ -11770,7 +11778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="10" t="s">
         <v>42</v>
       </c>
@@ -11790,7 +11798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="10" t="s">
         <v>438</v>
       </c>
@@ -11816,7 +11824,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="10" t="s">
         <v>61</v>
       </c>
@@ -11839,7 +11847,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="10" t="s">
         <v>269</v>
       </c>
@@ -11862,7 +11870,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="13" t="s">
         <v>46</v>
       </c>
@@ -11889,7 +11897,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="10" t="s">
         <v>52</v>
       </c>
@@ -11912,7 +11920,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="13" t="s">
         <v>57</v>
       </c>
@@ -11938,7 +11946,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="13" t="s">
         <v>56</v>
       </c>
@@ -11964,7 +11972,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="13" t="s">
         <v>357</v>
       </c>
@@ -11987,7 +11995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" s="13" t="s">
         <v>358</v>
       </c>
@@ -12010,7 +12018,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" s="10" t="s">
         <v>58</v>
       </c>
@@ -12040,7 +12048,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" s="10" t="s">
         <v>58</v>
       </c>
@@ -12076,7 +12084,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" s="19" t="s">
         <v>58</v>
       </c>
@@ -12111,7 +12119,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" s="13" t="s">
         <v>63</v>
       </c>
@@ -12137,7 +12145,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="13" t="s">
         <v>63</v>
       </c>
@@ -12172,7 +12180,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" s="13" t="s">
         <v>63</v>
       </c>
@@ -12207,7 +12215,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" s="10" t="s">
         <v>73</v>
       </c>
@@ -12230,7 +12238,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18">
       <c r="A33" s="13" t="s">
         <v>78</v>
       </c>
@@ -12256,7 +12264,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="A34" s="13" t="s">
         <v>80</v>
       </c>
@@ -12282,7 +12290,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18">
       <c r="A35" s="13" t="s">
         <v>81</v>
       </c>
@@ -12314,7 +12322,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36" s="13" t="s">
         <v>81</v>
       </c>
@@ -12343,7 +12351,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18">
       <c r="A37" s="10" t="s">
         <v>272</v>
       </c>
@@ -12366,7 +12374,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18">
       <c r="A38" s="10" t="s">
         <v>273</v>
       </c>
@@ -12389,7 +12397,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="A39" s="10" t="s">
         <v>274</v>
       </c>
@@ -12412,7 +12420,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18">
       <c r="A40" s="10" t="s">
         <v>275</v>
       </c>
@@ -12435,7 +12443,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18">
       <c r="A41" s="13" t="s">
         <v>87</v>
       </c>
@@ -12462,7 +12470,7 @@
       </c>
       <c r="R41"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
       <c r="A42" s="10" t="s">
         <v>100</v>
       </c>
@@ -12486,7 +12494,7 @@
       </c>
       <c r="R42"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18">
       <c r="A43" s="10" t="s">
         <v>111</v>
       </c>
@@ -12516,7 +12524,7 @@
       </c>
       <c r="R43"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18">
       <c r="A44" s="10" t="s">
         <v>104</v>
       </c>
@@ -12540,7 +12548,7 @@
       </c>
       <c r="R44"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18">
       <c r="A45" s="10" t="s">
         <v>279</v>
       </c>
@@ -12564,7 +12572,7 @@
       </c>
       <c r="R45"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18">
       <c r="A46" s="10" t="s">
         <v>280</v>
       </c>
@@ -12588,7 +12596,7 @@
       </c>
       <c r="R46"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18">
       <c r="A47" s="10" t="s">
         <v>281</v>
       </c>
@@ -12609,7 +12617,7 @@
       </c>
       <c r="R47"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18">
       <c r="A48" s="10" t="s">
         <v>282</v>
       </c>
@@ -12635,7 +12643,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="A49" s="13" t="s">
         <v>115</v>
       </c>
@@ -12658,7 +12666,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="A50" s="13" t="s">
         <v>115</v>
       </c>
@@ -12678,7 +12686,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="A51" s="13" t="s">
         <v>118</v>
       </c>
@@ -12698,7 +12706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52" s="10" t="s">
         <v>141</v>
       </c>
@@ -12718,7 +12726,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="A53" s="10" t="s">
         <v>122</v>
       </c>
@@ -12738,7 +12746,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="A54" s="13" t="s">
         <v>142</v>
       </c>
@@ -12758,7 +12766,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="A55" s="13" t="s">
         <v>142</v>
       </c>
@@ -12775,7 +12783,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16">
       <c r="A56" s="13" t="s">
         <v>144</v>
       </c>
@@ -12795,7 +12803,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" s="13" t="s">
         <v>144</v>
       </c>
@@ -12812,7 +12820,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="A58" s="10" t="s">
         <v>220</v>
       </c>
@@ -12833,7 +12841,7 @@
       </c>
       <c r="J58" s="3"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="A59" s="10" t="s">
         <v>228</v>
       </c>
@@ -12847,7 +12855,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="A60" s="13" t="s">
         <v>145</v>
       </c>
@@ -12870,7 +12878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="A61" s="13" t="s">
         <v>150</v>
       </c>
@@ -12899,7 +12907,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="A62" s="13" t="s">
         <v>152</v>
       </c>
@@ -12925,7 +12933,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="A63" s="13" t="s">
         <v>154</v>
       </c>
@@ -12951,7 +12959,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="A64" s="13" t="s">
         <v>163</v>
       </c>
@@ -12980,7 +12988,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65" s="10" t="s">
         <v>164</v>
       </c>
@@ -13000,7 +13008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66" s="10" t="s">
         <v>174</v>
       </c>
@@ -13026,7 +13034,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67" s="10" t="s">
         <v>176</v>
       </c>
@@ -13049,7 +13057,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68" s="13" t="s">
         <v>180</v>
       </c>
@@ -13069,7 +13077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69" s="13" t="s">
         <v>181</v>
       </c>
@@ -13092,7 +13100,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70" s="13" t="s">
         <v>182</v>
       </c>
@@ -13112,7 +13120,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12">
       <c r="A71" s="13" t="s">
         <v>185</v>
       </c>
@@ -13135,7 +13143,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12">
       <c r="A72" s="10" t="s">
         <v>187</v>
       </c>
@@ -13155,7 +13163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="A73" s="10" t="s">
         <v>188</v>
       </c>
@@ -13181,7 +13189,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="A74" s="10" t="s">
         <v>189</v>
       </c>
@@ -13201,7 +13209,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12">
       <c r="A75" s="10" t="s">
         <v>190</v>
       </c>
@@ -13224,7 +13232,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12">
       <c r="A76" s="13" t="s">
         <v>216</v>
       </c>
@@ -13241,7 +13249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12">
       <c r="A77" s="10" t="s">
         <v>191</v>
       </c>
@@ -13261,7 +13269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12">
       <c r="A78" s="10" t="s">
         <v>191</v>
       </c>
@@ -13287,7 +13295,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12">
       <c r="A79" s="13" t="s">
         <v>196</v>
       </c>
@@ -13307,7 +13315,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80" s="13" t="s">
         <v>197</v>
       </c>
@@ -13330,7 +13338,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12">
       <c r="A81" s="13" t="s">
         <v>198</v>
       </c>
@@ -13356,7 +13364,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12">
       <c r="A82" s="10" t="s">
         <v>200</v>
       </c>
@@ -13376,7 +13384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12">
       <c r="A83" s="10" t="s">
         <v>201</v>
       </c>
@@ -13399,7 +13407,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12">
       <c r="A84" s="13" t="s">
         <v>205</v>
       </c>
@@ -13419,7 +13427,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12">
       <c r="A85" s="13" t="s">
         <v>208</v>
       </c>
@@ -13439,7 +13447,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12">
       <c r="A86" s="10" t="s">
         <v>209</v>
       </c>
@@ -13459,7 +13467,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12">
       <c r="A87" s="10" t="s">
         <v>211</v>
       </c>
@@ -13479,12 +13487,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12">
       <c r="A94" s="10" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12">
       <c r="A95" s="13" t="s">
         <v>344</v>
       </c>
@@ -13643,12 +13651,12 @@
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>856</v>
       </c>
@@ -13665,7 +13673,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>461</v>
       </c>
@@ -13676,7 +13684,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>466</v>
       </c>
@@ -13684,7 +13692,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" t="s">
         <v>462</v>
       </c>
@@ -13692,7 +13700,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>467</v>
       </c>
@@ -13709,7 +13717,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" t="s">
         <v>468</v>
       </c>
@@ -13726,7 +13734,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10" t="s">
         <v>469</v>
       </c>
@@ -13743,7 +13751,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="B11" t="s">
         <v>470</v>
       </c>
@@ -13760,7 +13768,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="B12" t="s">
         <v>471</v>
       </c>
@@ -13777,7 +13785,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13" t="s">
         <v>472</v>
       </c>
@@ -13794,7 +13802,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="B14" t="s">
         <v>473</v>
       </c>
@@ -13811,7 +13819,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15" t="s">
         <v>474</v>
       </c>
@@ -13828,7 +13836,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" t="s">
         <v>475</v>
       </c>
@@ -13845,7 +13853,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13">
       <c r="B17" t="s">
         <v>495</v>
       </c>
@@ -13862,7 +13870,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13">
       <c r="B18" t="s">
         <v>476</v>
       </c>
@@ -13882,7 +13890,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13">
       <c r="B19" t="s">
         <v>477</v>
       </c>
@@ -13902,7 +13910,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13">
       <c r="B20" t="s">
         <v>478</v>
       </c>
@@ -13919,7 +13927,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13">
       <c r="B21" t="s">
         <v>479</v>
       </c>
@@ -13936,7 +13944,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13">
       <c r="B22" t="s">
         <v>480</v>
       </c>
@@ -13953,7 +13961,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13">
       <c r="B23" t="s">
         <v>481</v>
       </c>
@@ -13970,7 +13978,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13">
       <c r="B24" t="s">
         <v>482</v>
       </c>
@@ -13987,7 +13995,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13">
       <c r="B25" t="s">
         <v>483</v>
       </c>
@@ -14004,22 +14012,22 @@
         <v>493</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13">
       <c r="B26" s="22" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13">
       <c r="B27" s="22" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13">
       <c r="B28" s="22" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13">
       <c r="B29" t="s">
         <v>510</v>
       </c>
@@ -14027,7 +14035,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13">
       <c r="B30" t="s">
         <v>511</v>
       </c>
@@ -14035,7 +14043,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8">
       <c r="B35" t="s">
         <v>560</v>
       </c>
@@ -14043,7 +14051,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8">
       <c r="B36" t="s">
         <v>905</v>
       </c>
@@ -14064,7 +14072,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8">
       <c r="B37" t="s">
         <v>904</v>
       </c>
@@ -14085,7 +14093,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8">
       <c r="B38" s="24" t="s">
         <v>561</v>
       </c>
@@ -14093,7 +14101,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8">
       <c r="B41" t="s">
         <v>930</v>
       </c>
@@ -14113,7 +14121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8">
       <c r="B42" t="s">
         <v>933</v>
       </c>
@@ -14136,7 +14144,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8">
       <c r="B43" t="s">
         <v>935</v>
       </c>
@@ -14145,7 +14153,7 @@
         <v>-2.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8">
       <c r="B46" t="s">
         <v>951</v>
       </c>
@@ -14162,7 +14170,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8">
       <c r="D47" t="s">
         <v>952</v>
       </c>
@@ -14173,7 +14181,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8">
       <c r="D48" t="s">
         <v>954</v>
       </c>
@@ -14184,7 +14192,7 @@
         <v>0.21666666600000001</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="D49" t="s">
         <v>955</v>
       </c>
@@ -14193,12 +14201,12 @@
         <v>216.66666600000002</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="B52" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="B53" t="s">
         <v>964</v>
       </c>
@@ -14210,7 +14218,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="B54" t="s">
         <v>965</v>
       </c>
@@ -14219,7 +14227,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="B55" t="s">
         <v>966</v>
       </c>
@@ -14228,7 +14236,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="B56" t="s">
         <v>967</v>
       </c>
@@ -14237,7 +14245,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="B57" t="s">
         <v>936</v>
       </c>
@@ -14245,7 +14253,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>984</v>
       </c>
@@ -14263,7 +14271,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="B61" t="s">
         <v>979</v>
       </c>
@@ -14278,7 +14286,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="B62" t="s">
         <v>980</v>
       </c>
@@ -14290,7 +14298,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="B63" t="s">
         <v>981</v>
       </c>
@@ -14302,7 +14310,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="B64" t="s">
         <v>982</v>
       </c>
@@ -14314,7 +14322,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15">
       <c r="B65" t="s">
         <v>171</v>
       </c>
@@ -14328,7 +14336,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15">
       <c r="A66" s="59"/>
       <c r="B66" s="59" t="s">
         <v>1087</v>
@@ -14346,7 +14354,7 @@
       <c r="G66" s="59"/>
       <c r="H66" s="59"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
         <v>992</v>
       </c>
@@ -14360,7 +14368,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15">
       <c r="B69" t="s">
         <v>178</v>
       </c>
@@ -14371,7 +14379,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15">
       <c r="B70" t="s">
         <v>990</v>
       </c>
@@ -14382,7 +14390,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
         <v>994</v>
       </c>
@@ -14396,7 +14404,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15">
       <c r="B73" t="s">
         <v>178</v>
       </c>
@@ -14407,7 +14415,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15">
       <c r="B74" t="s">
         <v>990</v>
       </c>
@@ -14418,7 +14426,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
         <v>1000</v>
       </c>
@@ -14463,7 +14471,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15">
       <c r="B77" t="s">
         <v>218</v>
       </c>
@@ -14484,7 +14492,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15">
       <c r="B78" t="s">
         <v>219</v>
       </c>
@@ -14505,7 +14513,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15">
       <c r="A80" t="s">
         <v>1020</v>
       </c>
@@ -14523,7 +14531,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5">
       <c r="B81" t="s">
         <v>1023</v>
       </c>
@@ -14538,7 +14546,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5">
       <c r="B82" t="s">
         <v>1024</v>
       </c>
@@ -14553,7 +14561,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5">
       <c r="B83" t="s">
         <v>1025</v>
       </c>
@@ -14581,12 +14589,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="9" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>236</v>
       </c>
@@ -14594,7 +14602,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>345</v>
       </c>
@@ -14602,27 +14610,27 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>146</v>
       </c>
@@ -14640,14 +14648,14 @@
       <selection activeCell="T7" sqref="T2:T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="str">
         <f>Basis!A3</f>
         <v>GWH Art</v>
@@ -14725,7 +14733,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -14793,7 +14801,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -14858,7 +14866,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
         <v>374</v>
       </c>
@@ -14917,7 +14925,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="B5" t="s">
         <v>378</v>
       </c>
@@ -14961,7 +14969,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="B6" t="s">
         <v>379</v>
       </c>
@@ -14999,7 +15007,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="C7" t="s">
         <v>29</v>
       </c>
@@ -15028,7 +15036,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="K8" t="s">
         <v>95</v>
       </c>
@@ -15048,7 +15056,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="K9" t="s">
         <v>114</v>
       </c>
@@ -15065,7 +15073,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="M10" t="s">
         <v>114</v>
       </c>
@@ -15076,7 +15084,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="O11" t="s">
         <v>341</v>
       </c>
@@ -15084,7 +15092,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="O12" t="s">
         <v>342</v>
       </c>
@@ -15092,82 +15100,82 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="P13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="P14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="P15" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="P16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="16:16">
       <c r="P17" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="16:16">
       <c r="P18" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="19" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="16:16">
       <c r="P19" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="20" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="16:16">
       <c r="P20" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="16:16">
       <c r="P21" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="16:16">
       <c r="P22" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="23" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="16:16">
       <c r="P23" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="24" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="16:16">
       <c r="P24" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="16:16">
       <c r="P25" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="26" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="16:16">
       <c r="P26" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="27" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="16:16">
       <c r="P27" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="34" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="16:16">
       <c r="P34" t="s">
         <v>330</v>
       </c>
@@ -15184,22 +15192,22 @@
   </sheetPr>
   <dimension ref="A1:H308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C157" sqref="C157"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B247" sqref="B247"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" customWidth="1"/>
+    <col min="2" max="2" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -15210,7 +15218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="28" t="s">
         <v>725</v>
       </c>
@@ -15222,7 +15230,7 @@
       </c>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="B4" t="s">
         <v>634</v>
       </c>
@@ -15230,12 +15238,12 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="B6" t="s">
         <v>635</v>
       </c>
@@ -15246,7 +15254,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>682</v>
       </c>
@@ -15260,7 +15268,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="B8" t="s">
         <v>684</v>
       </c>
@@ -15271,7 +15279,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>681</v>
       </c>
@@ -15280,7 +15288,7 @@
       </c>
       <c r="C9" s="58"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="B10" t="s">
         <v>832</v>
       </c>
@@ -15291,7 +15299,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="B11" t="s">
         <v>1073</v>
       </c>
@@ -15300,7 +15308,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="28" t="s">
         <v>726</v>
       </c>
@@ -15308,7 +15316,7 @@
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>638</v>
       </c>
@@ -15322,7 +15330,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="B14" t="s">
         <v>637</v>
       </c>
@@ -15333,7 +15341,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="B15" t="s">
         <v>374</v>
       </c>
@@ -15344,7 +15352,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -15359,7 +15367,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="B17" t="s">
         <v>636</v>
       </c>
@@ -15370,7 +15378,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -15384,7 +15392,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -15395,7 +15403,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="B20" t="s">
         <v>639</v>
       </c>
@@ -15406,7 +15414,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="B21" t="s">
         <v>640</v>
       </c>
@@ -15417,7 +15425,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="B22" t="s">
         <v>30</v>
       </c>
@@ -15428,7 +15436,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="B23" t="s">
         <v>29</v>
       </c>
@@ -15439,7 +15447,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>641</v>
       </c>
@@ -15454,7 +15462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="B25" t="s">
         <v>636</v>
       </c>
@@ -15463,7 +15471,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>242</v>
       </c>
@@ -15477,7 +15485,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="B27" t="s">
         <v>22</v>
       </c>
@@ -15488,7 +15496,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="B28" t="s">
         <v>639</v>
       </c>
@@ -15499,7 +15507,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="B29" t="s">
         <v>640</v>
       </c>
@@ -15510,7 +15518,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="B30" t="s">
         <v>30</v>
       </c>
@@ -15521,7 +15529,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="B31" t="s">
         <v>29</v>
       </c>
@@ -15532,7 +15540,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>810</v>
       </c>
@@ -15547,7 +15555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="B33" t="s">
         <v>636</v>
       </c>
@@ -15558,7 +15566,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -15572,7 +15580,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -15583,7 +15591,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="B36" t="s">
         <v>418</v>
       </c>
@@ -15594,7 +15602,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="B37" t="s">
         <v>33</v>
       </c>
@@ -15605,7 +15613,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="B38" t="s">
         <v>642</v>
       </c>
@@ -15616,7 +15624,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>643</v>
       </c>
@@ -15631,7 +15639,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="B40" t="s">
         <v>636</v>
       </c>
@@ -15642,7 +15650,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>644</v>
       </c>
@@ -15656,7 +15664,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="B42" t="s">
         <v>35</v>
       </c>
@@ -15667,7 +15675,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="B43" t="s">
         <v>36</v>
       </c>
@@ -15678,7 +15686,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="B44" t="s">
         <v>37</v>
       </c>
@@ -15689,7 +15697,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="B45" t="s">
         <v>645</v>
       </c>
@@ -15700,7 +15708,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="B46" t="s">
         <v>649</v>
       </c>
@@ -15711,7 +15719,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="B47" t="s">
         <v>807</v>
       </c>
@@ -15722,7 +15730,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>269</v>
       </c>
@@ -15736,7 +15744,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="B49" t="s">
         <v>839</v>
       </c>
@@ -15748,7 +15756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="B50" t="s">
         <v>840</v>
       </c>
@@ -15757,7 +15765,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>646</v>
       </c>
@@ -15771,7 +15779,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="B52" t="s">
         <v>648</v>
       </c>
@@ -15782,7 +15790,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -15796,7 +15804,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="B54" t="s">
         <v>434</v>
       </c>
@@ -15807,7 +15815,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="B55" t="s">
         <v>435</v>
       </c>
@@ -15818,7 +15826,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="B56" t="s">
         <v>650</v>
       </c>
@@ -15830,7 +15838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="B57" t="s">
         <v>636</v>
       </c>
@@ -15841,7 +15849,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>833</v>
       </c>
@@ -15855,7 +15863,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="B59" t="s">
         <v>650</v>
       </c>
@@ -15867,7 +15875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="B60" t="s">
         <v>636</v>
       </c>
@@ -15876,7 +15884,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="B61" t="s">
         <v>835</v>
       </c>
@@ -15887,7 +15895,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="B62" t="s">
         <v>650</v>
       </c>
@@ -15899,7 +15907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="B63" t="s">
         <v>636</v>
       </c>
@@ -15908,7 +15916,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="28" t="s">
         <v>239</v>
       </c>
@@ -15916,7 +15924,7 @@
       <c r="C64" s="29"/>
       <c r="D64" s="29"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>657</v>
       </c>
@@ -15930,7 +15938,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="B66" t="s">
         <v>938</v>
       </c>
@@ -15941,7 +15949,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="B67" t="s">
         <v>977</v>
       </c>
@@ -15952,7 +15960,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>656</v>
       </c>
@@ -15966,7 +15974,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="B69" t="s">
         <v>938</v>
       </c>
@@ -15977,7 +15985,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="B70" t="s">
         <v>977</v>
       </c>
@@ -15988,7 +15996,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>658</v>
       </c>
@@ -16002,7 +16010,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="B72" t="s">
         <v>938</v>
       </c>
@@ -16013,7 +16021,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="B73" t="s">
         <v>977</v>
       </c>
@@ -16024,7 +16032,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>659</v>
       </c>
@@ -16038,7 +16046,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="B75" t="s">
         <v>938</v>
       </c>
@@ -16049,7 +16057,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="B76" t="s">
         <v>977</v>
       </c>
@@ -16060,7 +16068,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>52</v>
       </c>
@@ -16075,7 +16083,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>455</v>
       </c>
@@ -16090,7 +16098,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="B84" t="s">
         <v>660</v>
       </c>
@@ -16114,7 +16122,7 @@
         <v>44207</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="B85" t="s">
         <v>662</v>
       </c>
@@ -16138,7 +16146,7 @@
         <v>44529</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>357</v>
       </c>
@@ -16152,7 +16160,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="B87" t="s">
         <v>358</v>
       </c>
@@ -16164,7 +16172,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="B88" t="s">
         <v>664</v>
       </c>
@@ -16188,7 +16196,7 @@
         <v>44403</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="B89" t="s">
         <v>665</v>
       </c>
@@ -16212,7 +16220,7 @@
         <v>44564</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>667</v>
       </c>
@@ -16220,7 +16228,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" s="28" t="s">
         <v>240</v>
       </c>
@@ -16228,10 +16236,10 @@
       <c r="C100" s="29"/>
       <c r="D100" s="29"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="C103" s="30"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>669</v>
       </c>
@@ -16245,7 +16253,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="B106" t="s">
         <v>80</v>
       </c>
@@ -16256,7 +16264,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>671</v>
       </c>
@@ -16270,7 +16278,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="B108" t="s">
         <v>673</v>
       </c>
@@ -16281,7 +16289,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" s="28" t="s">
         <v>88</v>
       </c>
@@ -16289,21 +16297,21 @@
       <c r="C110" s="29"/>
       <c r="D110" s="29"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>89</v>
       </c>
       <c r="B111" t="s">
         <v>318</v>
       </c>
-      <c r="C111">
-        <v>1300</v>
+      <c r="C111" s="68">
+        <v>40000</v>
       </c>
       <c r="D111" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="B112" t="s">
         <v>318</v>
       </c>
@@ -16311,7 +16319,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="B113" s="60" t="s">
         <v>676</v>
       </c>
@@ -16320,21 +16328,21 @@
         <v>161</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>678</v>
       </c>
       <c r="B114" t="s">
         <v>318</v>
       </c>
-      <c r="C114">
-        <v>1600</v>
+      <c r="C114" s="59">
+        <v>16000</v>
       </c>
       <c r="D114" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="B115" t="s">
         <v>318</v>
       </c>
@@ -16342,7 +16350,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="B116" s="60" t="s">
         <v>676</v>
       </c>
@@ -16351,7 +16359,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>90</v>
       </c>
@@ -16368,7 +16376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="B118" t="s">
         <v>318</v>
       </c>
@@ -16383,7 +16391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="B119" t="s">
         <v>318</v>
       </c>
@@ -16394,7 +16402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>91</v>
       </c>
@@ -16405,7 +16413,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="B121" t="s">
         <v>318</v>
       </c>
@@ -16413,7 +16421,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>94</v>
       </c>
@@ -16424,7 +16432,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="B123" t="s">
         <v>318</v>
       </c>
@@ -16432,7 +16440,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>92</v>
       </c>
@@ -16443,7 +16451,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="B125" t="s">
         <v>318</v>
       </c>
@@ -16451,7 +16459,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>865</v>
       </c>
@@ -16462,7 +16470,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>532</v>
       </c>
@@ -16473,7 +16481,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>114</v>
       </c>
@@ -16487,7 +16495,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6">
       <c r="B129" t="s">
         <v>874</v>
       </c>
@@ -16502,7 +16510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
       <c r="B130" t="s">
         <v>874</v>
       </c>
@@ -16513,7 +16521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
       <c r="B131" t="s">
         <v>875</v>
       </c>
@@ -16524,7 +16532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="B132" t="s">
         <v>872</v>
       </c>
@@ -16535,7 +16543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="B133" t="s">
         <v>876</v>
       </c>
@@ -16546,7 +16554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6">
       <c r="B134" t="s">
         <v>873</v>
       </c>
@@ -16557,7 +16565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>687</v>
       </c>
@@ -16566,7 +16574,7 @@
       </c>
       <c r="C135">
         <f>(C10/C7)*C136</f>
-        <v>35.625</v>
+        <v>14008.125</v>
       </c>
       <c r="D135" t="s">
         <v>102</v>
@@ -16575,13 +16583,13 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="B136" t="s">
         <v>689</v>
       </c>
       <c r="C136">
         <f>C138+C140+C142+C144+C146+C148+C150+C152+C156+C154</f>
-        <v>57</v>
+        <v>22413</v>
       </c>
       <c r="D136" t="s">
         <v>102</v>
@@ -16590,7 +16598,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>111</v>
       </c>
@@ -16601,15 +16609,15 @@
         <v>161</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C138">
-        <v>20</v>
+    <row r="138" spans="1:6">
+      <c r="C138" s="59">
+        <v>20000</v>
       </c>
       <c r="D138" s="39" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6">
       <c r="B139" t="s">
         <v>690</v>
       </c>
@@ -16617,15 +16625,15 @@
         <v>161</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C140">
-        <v>24</v>
+    <row r="140" spans="1:6">
+      <c r="C140" s="59">
+        <v>2400</v>
       </c>
       <c r="D140" s="39" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6">
       <c r="B141" t="s">
         <v>528</v>
       </c>
@@ -16633,7 +16641,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="C142">
         <v>13</v>
       </c>
@@ -16641,7 +16649,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="B143" t="s">
         <v>691</v>
       </c>
@@ -16649,12 +16657,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6">
       <c r="D144" s="39" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6">
       <c r="B145" t="s">
         <v>692</v>
       </c>
@@ -16662,12 +16670,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6">
       <c r="D146" s="39" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6">
       <c r="B147" t="s">
         <v>531</v>
       </c>
@@ -16675,12 +16683,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6">
       <c r="D148" s="39" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6">
       <c r="B149" t="s">
         <v>532</v>
       </c>
@@ -16688,12 +16696,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6">
       <c r="D150" s="39" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6">
       <c r="B151" t="s">
         <v>880</v>
       </c>
@@ -16701,12 +16709,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6">
       <c r="D152" s="39" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6">
       <c r="B153" t="s">
         <v>881</v>
       </c>
@@ -16714,12 +16722,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6">
       <c r="D154" s="39" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6">
       <c r="B155" t="s">
         <v>623</v>
       </c>
@@ -16727,12 +16735,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6">
       <c r="D156" s="39" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>104</v>
       </c>
@@ -16746,7 +16754,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6">
       <c r="B158" t="s">
         <v>694</v>
       </c>
@@ -16764,7 +16772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6">
       <c r="B159" t="s">
         <v>107</v>
       </c>
@@ -16772,7 +16780,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6">
       <c r="B160" t="s">
         <v>695</v>
       </c>
@@ -16780,7 +16788,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="B161" t="s">
         <v>108</v>
       </c>
@@ -16788,7 +16796,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="B162" t="s">
         <v>696</v>
       </c>
@@ -16796,7 +16804,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164" s="28" t="s">
         <v>116</v>
       </c>
@@ -16804,7 +16812,7 @@
       <c r="C164" s="29"/>
       <c r="D164" s="29"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
         <v>115</v>
       </c>
@@ -16816,7 +16824,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="B166" s="60" t="s">
         <v>698</v>
       </c>
@@ -16825,7 +16833,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="B167" t="s">
         <v>120</v>
       </c>
@@ -16837,7 +16845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="B168" t="s">
         <v>120</v>
       </c>
@@ -16848,7 +16856,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="B169" t="s">
         <v>120</v>
       </c>
@@ -16856,7 +16864,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="B170" t="s">
         <v>697</v>
       </c>
@@ -16868,7 +16876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5">
       <c r="B171" t="s">
         <v>697</v>
       </c>
@@ -16876,7 +16884,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="B172" t="s">
         <v>697</v>
       </c>
@@ -16884,7 +16892,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="B173" t="s">
         <v>114</v>
       </c>
@@ -16896,7 +16904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="B174" t="s">
         <v>114</v>
       </c>
@@ -16907,7 +16915,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5">
       <c r="B175" t="s">
         <v>114</v>
       </c>
@@ -16915,7 +16923,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5">
       <c r="A176" t="s">
         <v>547</v>
       </c>
@@ -16929,7 +16937,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:4">
       <c r="B177" t="s">
         <v>125</v>
       </c>
@@ -16940,7 +16948,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:4">
       <c r="B178" t="s">
         <v>335</v>
       </c>
@@ -16951,7 +16959,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:4">
       <c r="B179" t="s">
         <v>158</v>
       </c>
@@ -16962,7 +16970,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:4">
       <c r="B180" t="s">
         <v>339</v>
       </c>
@@ -16973,7 +16981,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:4">
       <c r="B181" t="s">
         <v>336</v>
       </c>
@@ -16984,7 +16992,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:4">
       <c r="B182" t="s">
         <v>337</v>
       </c>
@@ -16995,7 +17003,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:4">
       <c r="B183" t="s">
         <v>338</v>
       </c>
@@ -17006,7 +17014,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:4">
       <c r="B184" t="s">
         <v>340</v>
       </c>
@@ -17017,7 +17025,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:4">
       <c r="B185" t="s">
         <v>341</v>
       </c>
@@ -17028,7 +17036,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:4">
       <c r="B186" t="s">
         <v>342</v>
       </c>
@@ -17039,7 +17047,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:4">
       <c r="B188" t="s">
         <v>127</v>
       </c>
@@ -17050,7 +17058,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:4">
       <c r="B189" t="s">
         <v>128</v>
       </c>
@@ -17061,7 +17069,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:4">
       <c r="B190" t="s">
         <v>129</v>
       </c>
@@ -17072,7 +17080,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:4">
       <c r="B191" t="s">
         <v>130</v>
       </c>
@@ -17083,7 +17091,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:4">
       <c r="B192" t="s">
         <v>131</v>
       </c>
@@ -17094,7 +17102,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:4">
       <c r="B193" t="s">
         <v>132</v>
       </c>
@@ -17105,7 +17113,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:4">
       <c r="B194" t="s">
         <v>325</v>
       </c>
@@ -17113,7 +17121,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:4">
       <c r="B195" t="s">
         <v>133</v>
       </c>
@@ -17124,7 +17132,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:4">
       <c r="B196" t="s">
         <v>334</v>
       </c>
@@ -17135,7 +17143,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:4">
       <c r="B197" t="s">
         <v>134</v>
       </c>
@@ -17146,7 +17154,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:4">
       <c r="B198" t="s">
         <v>135</v>
       </c>
@@ -17157,7 +17165,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:4">
       <c r="B199" t="s">
         <v>136</v>
       </c>
@@ -17168,7 +17176,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:4">
       <c r="B200" t="s">
         <v>137</v>
       </c>
@@ -17179,7 +17187,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:4">
       <c r="B201" t="s">
         <v>138</v>
       </c>
@@ -17190,7 +17198,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:4">
       <c r="B202" t="s">
         <v>139</v>
       </c>
@@ -17201,7 +17209,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:4">
       <c r="B203" t="s">
         <v>140</v>
       </c>
@@ -17212,7 +17220,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:4">
       <c r="B204" t="s">
         <v>322</v>
       </c>
@@ -17223,7 +17231,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:4">
       <c r="B205" t="s">
         <v>323</v>
       </c>
@@ -17234,7 +17242,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:4">
       <c r="B206" t="s">
         <v>324</v>
       </c>
@@ -17245,7 +17253,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:4">
       <c r="B207" t="s">
         <v>326</v>
       </c>
@@ -17256,7 +17264,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:4">
       <c r="B208" t="s">
         <v>327</v>
       </c>
@@ -17267,7 +17275,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6">
       <c r="B209" t="s">
         <v>328</v>
       </c>
@@ -17278,7 +17286,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6">
       <c r="B210" t="s">
         <v>329</v>
       </c>
@@ -17289,7 +17297,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6">
       <c r="B211" t="s">
         <v>331</v>
       </c>
@@ -17300,7 +17308,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6">
       <c r="B212" t="s">
         <v>332</v>
       </c>
@@ -17311,7 +17319,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6">
       <c r="B213" t="s">
         <v>333</v>
       </c>
@@ -17322,7 +17330,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6">
       <c r="A215" t="s">
         <v>700</v>
       </c>
@@ -17336,7 +17344,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6">
       <c r="B216" t="s">
         <v>142</v>
       </c>
@@ -17347,7 +17355,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6">
       <c r="B217" t="s">
         <v>144</v>
       </c>
@@ -17358,7 +17366,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6">
       <c r="B218" t="s">
         <v>144</v>
       </c>
@@ -17369,7 +17377,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6">
       <c r="A219" t="s">
         <v>220</v>
       </c>
@@ -17390,7 +17398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6">
       <c r="B220" t="s">
         <v>702</v>
       </c>
@@ -17401,7 +17409,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6">
       <c r="B221" t="s">
         <v>703</v>
       </c>
@@ -17412,7 +17420,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6">
       <c r="B222" t="s">
         <v>704</v>
       </c>
@@ -17423,7 +17431,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6">
       <c r="B223" t="s">
         <v>705</v>
       </c>
@@ -17434,7 +17442,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6">
       <c r="B224" t="s">
         <v>706</v>
       </c>
@@ -17445,7 +17453,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4">
       <c r="B225" t="s">
         <v>707</v>
       </c>
@@ -17456,7 +17464,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4">
       <c r="B226" t="s">
         <v>708</v>
       </c>
@@ -17467,7 +17475,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4">
       <c r="B227" s="60" t="s">
         <v>709</v>
       </c>
@@ -17478,7 +17486,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4">
       <c r="A229" s="28" t="s">
         <v>146</v>
       </c>
@@ -17486,7 +17494,7 @@
       <c r="C229" s="29"/>
       <c r="D229" s="29"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>145</v>
       </c>
@@ -17500,7 +17508,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4">
       <c r="B231" s="60" t="s">
         <v>710</v>
       </c>
@@ -17509,7 +17517,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4">
       <c r="B232" s="60" t="s">
         <v>710</v>
       </c>
@@ -17518,7 +17526,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4">
       <c r="B233" s="60" t="s">
         <v>35</v>
       </c>
@@ -17529,7 +17537,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4">
       <c r="B234" s="60" t="s">
         <v>154</v>
       </c>
@@ -17540,7 +17548,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>918</v>
       </c>
@@ -17554,7 +17562,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4">
       <c r="B236" t="s">
         <v>928</v>
       </c>
@@ -17565,7 +17573,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4">
       <c r="B237" t="s">
         <v>929</v>
       </c>
@@ -17576,7 +17584,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4">
       <c r="B238" t="s">
         <v>650</v>
       </c>
@@ -17588,7 +17596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4">
       <c r="B239" t="s">
         <v>923</v>
       </c>
@@ -17596,7 +17604,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>163</v>
       </c>
@@ -17610,7 +17618,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4">
       <c r="B241" t="s">
         <v>157</v>
       </c>
@@ -17621,7 +17629,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4">
       <c r="B242" t="s">
         <v>159</v>
       </c>
@@ -17632,7 +17640,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4">
       <c r="B243" t="s">
         <v>160</v>
       </c>
@@ -17643,7 +17651,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4">
       <c r="B244" t="s">
         <v>957</v>
       </c>
@@ -17654,18 +17662,18 @@
         <v>652</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4">
       <c r="B245" t="s">
         <v>927</v>
       </c>
-      <c r="C245">
-        <v>1</v>
+      <c r="C245" s="59">
+        <v>5</v>
       </c>
       <c r="D245" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>563</v>
       </c>
@@ -17679,7 +17687,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4">
       <c r="B247" t="s">
         <v>167</v>
       </c>
@@ -17690,7 +17698,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4">
       <c r="B248" t="s">
         <v>168</v>
       </c>
@@ -17701,7 +17709,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4">
       <c r="B249" t="s">
         <v>169</v>
       </c>
@@ -17712,7 +17720,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4">
       <c r="B250" t="s">
         <v>170</v>
       </c>
@@ -17723,7 +17731,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4">
       <c r="B251" t="s">
         <v>171</v>
       </c>
@@ -17734,7 +17742,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4">
       <c r="B252" t="s">
         <v>712</v>
       </c>
@@ -17745,7 +17753,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4">
       <c r="B253" t="s">
         <v>713</v>
       </c>
@@ -17756,7 +17764,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4">
       <c r="B254" t="s">
         <v>927</v>
       </c>
@@ -17767,7 +17775,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>573</v>
       </c>
@@ -17781,7 +17789,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4">
       <c r="B256" t="s">
         <v>178</v>
       </c>
@@ -17792,7 +17800,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4">
       <c r="B257" t="s">
         <v>179</v>
       </c>
@@ -17803,7 +17811,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4">
       <c r="B258" t="s">
         <v>714</v>
       </c>
@@ -17811,7 +17819,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4">
       <c r="B259" t="s">
         <v>715</v>
       </c>
@@ -17822,7 +17830,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4">
       <c r="B260" t="s">
         <v>927</v>
       </c>
@@ -17833,7 +17841,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>585</v>
       </c>
@@ -17847,7 +17855,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4">
       <c r="B262" t="s">
         <v>178</v>
       </c>
@@ -17858,7 +17866,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4">
       <c r="B263" t="s">
         <v>179</v>
       </c>
@@ -17869,7 +17877,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4">
       <c r="B264" s="64" t="s">
         <v>714</v>
       </c>
@@ -17878,7 +17886,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4">
       <c r="B265" t="s">
         <v>715</v>
       </c>
@@ -17889,7 +17897,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4">
       <c r="B266" t="s">
         <v>927</v>
       </c>
@@ -17900,7 +17908,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
         <v>216</v>
       </c>
@@ -17914,7 +17922,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4">
       <c r="B268" t="s">
         <v>218</v>
       </c>
@@ -17925,7 +17933,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4">
       <c r="B269" t="s">
         <v>219</v>
       </c>
@@ -17936,7 +17944,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>1059</v>
       </c>
@@ -17950,7 +17958,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4">
       <c r="B271" t="s">
         <v>1017</v>
       </c>
@@ -17961,7 +17969,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4">
       <c r="B272" t="s">
         <v>346</v>
       </c>
@@ -17972,7 +17980,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4">
       <c r="B273" t="s">
         <v>717</v>
       </c>
@@ -17983,7 +17991,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
         <v>608</v>
       </c>
@@ -17997,7 +18005,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4">
       <c r="B275" t="s">
         <v>719</v>
       </c>
@@ -18008,7 +18016,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4">
       <c r="B276" t="s">
         <v>156</v>
       </c>
@@ -18019,7 +18027,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4">
       <c r="B277" t="s">
         <v>157</v>
       </c>
@@ -18030,7 +18038,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4">
       <c r="B278" t="s">
         <v>159</v>
       </c>
@@ -18041,7 +18049,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4">
       <c r="B279" t="s">
         <v>160</v>
       </c>
@@ -18052,7 +18060,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4">
       <c r="B280" t="s">
         <v>957</v>
       </c>
@@ -18063,32 +18071,32 @@
         <v>652</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
         <v>720</v>
       </c>
       <c r="B281" s="59" t="s">
         <v>722</v>
       </c>
-      <c r="C281">
-        <v>3500</v>
+      <c r="C281" s="59">
+        <v>350</v>
       </c>
       <c r="D281" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4">
       <c r="B282" s="59" t="s">
         <v>721</v>
       </c>
-      <c r="C282">
-        <v>1500</v>
+      <c r="C282" s="59">
+        <v>150</v>
       </c>
       <c r="D282" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4">
       <c r="B283" t="s">
         <v>1031</v>
       </c>
@@ -18099,7 +18107,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
         <v>196</v>
       </c>
@@ -18113,7 +18121,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4">
       <c r="B285" t="s">
         <v>717</v>
       </c>
@@ -18124,7 +18132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4">
       <c r="B286" t="s">
         <v>193</v>
       </c>
@@ -18135,7 +18143,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4">
       <c r="B287" t="s">
         <v>717</v>
       </c>
@@ -18146,7 +18154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4">
       <c r="B288" t="s">
         <v>194</v>
       </c>
@@ -18157,7 +18165,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4">
       <c r="B289" t="s">
         <v>717</v>
       </c>
@@ -18168,7 +18176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4">
       <c r="B290" t="s">
         <v>166</v>
       </c>
@@ -18179,7 +18187,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4">
       <c r="B291" t="s">
         <v>717</v>
       </c>
@@ -18190,7 +18198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4">
       <c r="B292" t="s">
         <v>195</v>
       </c>
@@ -18201,7 +18209,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4">
       <c r="B293" t="s">
         <v>717</v>
       </c>
@@ -18212,7 +18220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4">
       <c r="B294" t="s">
         <v>1032</v>
       </c>
@@ -18223,7 +18231,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4">
       <c r="B295" t="s">
         <v>717</v>
       </c>
@@ -18234,7 +18242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
         <v>613</v>
       </c>
@@ -18248,7 +18256,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4">
       <c r="A297" t="s">
         <v>812</v>
       </c>
@@ -18262,7 +18270,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4">
       <c r="B298" t="s">
         <v>813</v>
       </c>
@@ -18273,7 +18281,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4">
       <c r="B299" t="s">
         <v>815</v>
       </c>
@@ -18284,7 +18292,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4">
       <c r="B300" t="s">
         <v>816</v>
       </c>
@@ -18296,7 +18304,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4">
       <c r="A301" t="s">
         <v>818</v>
       </c>
@@ -18307,7 +18315,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4">
       <c r="B302" t="s">
         <v>813</v>
       </c>
@@ -18315,7 +18323,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4">
       <c r="B303" t="s">
         <v>815</v>
       </c>
@@ -18323,7 +18331,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4">
       <c r="B304" t="s">
         <v>816</v>
       </c>
@@ -18335,7 +18343,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4">
       <c r="A305" t="s">
         <v>819</v>
       </c>
@@ -18346,7 +18354,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4">
       <c r="B306" t="s">
         <v>813</v>
       </c>
@@ -18354,7 +18362,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4">
       <c r="B307" t="s">
         <v>815</v>
       </c>
@@ -18362,7 +18370,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4">
       <c r="B308" t="s">
         <v>816</v>
       </c>
@@ -18376,6 +18384,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18390,14 +18399,14 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>727</v>
       </c>
@@ -18414,27 +18423,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>732</v>
       </c>
@@ -18451,337 +18460,337 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="9" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="9" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>785</v>
       </c>
@@ -18802,22 +18811,22 @@
       <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" customWidth="1"/>
-    <col min="4" max="4" width="90.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
-    <col min="9" max="10" width="22.85546875" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" customWidth="1"/>
+    <col min="4" max="4" width="90.1796875" customWidth="1"/>
+    <col min="5" max="5" width="26.1796875" customWidth="1"/>
+    <col min="9" max="10" width="22.81640625" customWidth="1"/>
+    <col min="11" max="11" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -18849,7 +18858,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="49" t="s">
         <v>540</v>
       </c>
@@ -18859,7 +18868,7 @@
       <c r="E4" s="49"/>
       <c r="F4" s="49"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="C6" s="24" t="s">
         <v>455</v>
       </c>
@@ -18874,7 +18883,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="C7" s="24" t="s">
         <v>629</v>
       </c>
@@ -18886,7 +18895,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="C8" s="24" t="s">
         <v>632</v>
       </c>
@@ -18895,10 +18904,10 @@
       </c>
       <c r="E8">
         <f>Betriebsdaten!C135+((Betriebsdaten!C158+Betriebsdaten!F159)*Betriebsdaten!C157)</f>
-        <v>45.625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>14018.125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="24" t="s">
@@ -18912,7 +18921,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="C12" s="24" t="s">
         <v>52</v>
       </c>
@@ -18924,7 +18933,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="C13" s="24" t="s">
         <v>383</v>
       </c>
@@ -18936,7 +18945,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="C14" s="24" t="s">
         <v>384</v>
       </c>
@@ -18948,7 +18957,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="C15" s="24" t="s">
         <v>385</v>
       </c>
@@ -18960,7 +18969,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="C16" s="24" t="s">
         <v>387</v>
       </c>
@@ -18968,7 +18977,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:8">
       <c r="C17" s="24" t="s">
         <v>388</v>
       </c>
@@ -18976,7 +18985,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:8">
       <c r="C18" s="24" t="s">
         <v>389</v>
       </c>
@@ -18984,7 +18993,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:8">
       <c r="C19" s="24" t="s">
         <v>390</v>
       </c>
@@ -18992,7 +19001,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:8">
       <c r="C21" s="24" t="s">
         <v>626</v>
       </c>
@@ -19001,7 +19010,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:8">
       <c r="C22" s="24" t="s">
         <v>940</v>
       </c>
@@ -19013,7 +19022,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:8">
       <c r="C23" s="24" t="s">
         <v>441</v>
       </c>
@@ -19025,7 +19034,7 @@
         <v>11712</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:8">
       <c r="C24" s="24" t="s">
         <v>450</v>
       </c>
@@ -19037,7 +19046,7 @@
         <v>11616</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:8">
       <c r="C26" s="24" t="s">
         <v>456</v>
       </c>
@@ -19045,7 +19054,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:8">
       <c r="C27" s="24" t="s">
         <v>457</v>
       </c>
@@ -19053,7 +19062,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:8">
       <c r="C28" s="24" t="s">
         <v>945</v>
       </c>
@@ -19065,7 +19074,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:8">
       <c r="C29" s="24" t="s">
         <v>946</v>
       </c>
@@ -19077,7 +19086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:8">
       <c r="C30" s="24" t="s">
         <v>947</v>
       </c>
@@ -19089,7 +19098,7 @@
         <v>21504</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:8">
       <c r="C31" s="24" t="s">
         <v>948</v>
       </c>
@@ -19101,7 +19110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:8">
       <c r="C32" s="24" t="s">
         <v>939</v>
       </c>
@@ -19113,7 +19122,7 @@
         <v>23424</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="C34" s="24" t="s">
         <v>970</v>
       </c>
@@ -19125,7 +19134,7 @@
         <v>7680</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="C35" s="24" t="s">
         <v>971</v>
       </c>
@@ -19137,7 +19146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="C36" s="24" t="s">
         <v>972</v>
       </c>
@@ -19149,7 +19158,7 @@
         <v>43008</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="C37" s="24" t="s">
         <v>973</v>
       </c>
@@ -19161,7 +19170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="C38" s="24" t="s">
         <v>974</v>
       </c>
@@ -19173,7 +19182,7 @@
         <v>50688</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="C39" s="24" t="s">
         <v>565</v>
       </c>
@@ -19185,7 +19194,7 @@
         <v>760320</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="C40" s="24" t="s">
         <v>577</v>
       </c>
@@ -19197,7 +19206,7 @@
         <v>760320</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="C41" s="24" t="s">
         <v>587</v>
       </c>
@@ -19209,7 +19218,7 @@
         <v>430080</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" ht="21">
       <c r="A45" s="51" t="s">
         <v>1042</v>
       </c>
@@ -19222,13 +19231,13 @@
       <c r="H45" s="48"/>
       <c r="I45" s="48"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="K46" s="65"/>
       <c r="L46" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="15.5">
       <c r="A47" s="52" t="s">
         <v>1043</v>
       </c>
@@ -19242,10 +19251,10 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="15.5">
       <c r="A48" s="53"/>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15">
       <c r="E49" t="s">
         <v>356</v>
       </c>
@@ -19277,7 +19286,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15">
       <c r="B50" s="25" t="s">
         <v>348</v>
       </c>
@@ -19300,7 +19309,7 @@
         <v>730.40000000000009</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15">
       <c r="C51" s="24" t="s">
         <v>346</v>
       </c>
@@ -19340,7 +19349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15">
       <c r="C52" s="24" t="s">
         <v>364</v>
       </c>
@@ -19380,7 +19389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15">
       <c r="C53" s="24" t="s">
         <v>354</v>
       </c>
@@ -19420,7 +19429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15">
       <c r="C54" s="26" t="s">
         <v>355</v>
       </c>
@@ -19462,7 +19471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15">
       <c r="C55" s="26" t="s">
         <v>365</v>
       </c>
@@ -19503,7 +19512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15">
       <c r="C56" s="24" t="s">
         <v>394</v>
       </c>
@@ -19546,7 +19555,7 @@
         <v>730.40000000000009</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15">
       <c r="C57" s="24" t="s">
         <v>395</v>
       </c>
@@ -19589,7 +19598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15">
       <c r="C58" s="24" t="s">
         <v>396</v>
       </c>
@@ -19632,7 +19641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15">
       <c r="C59" s="24" t="s">
         <v>397</v>
       </c>
@@ -19675,7 +19684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15">
       <c r="C60" s="24" t="s">
         <v>399</v>
       </c>
@@ -19718,7 +19727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15">
       <c r="C61" s="24" t="s">
         <v>398</v>
       </c>
@@ -19761,7 +19770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15">
       <c r="C62" s="24" t="s">
         <v>400</v>
       </c>
@@ -19804,7 +19813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15">
       <c r="C63" s="24" t="s">
         <v>401</v>
       </c>
@@ -19847,7 +19856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15">
       <c r="C64" s="24" t="s">
         <v>402</v>
       </c>
@@ -19890,7 +19899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:15">
       <c r="C65" s="24" t="s">
         <v>403</v>
       </c>
@@ -19933,7 +19942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:15">
       <c r="C66" s="24" t="s">
         <v>404</v>
       </c>
@@ -19976,7 +19985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:15">
       <c r="C67" s="24" t="s">
         <v>405</v>
       </c>
@@ -20019,7 +20028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:15">
       <c r="B69" s="25" t="s">
         <v>363</v>
       </c>
@@ -20042,7 +20051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:15">
       <c r="C70" s="27" t="s">
         <v>346</v>
       </c>
@@ -20082,7 +20091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:15">
       <c r="C71" s="27" t="s">
         <v>364</v>
       </c>
@@ -20122,7 +20131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:15">
       <c r="C72" s="27" t="s">
         <v>354</v>
       </c>
@@ -20162,7 +20171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:15">
       <c r="C73" s="36" t="s">
         <v>355</v>
       </c>
@@ -20203,7 +20212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:15">
       <c r="C74" s="36" t="s">
         <v>365</v>
       </c>
@@ -20245,7 +20254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:15">
       <c r="C75" s="27" t="s">
         <v>394</v>
       </c>
@@ -20288,7 +20297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:15">
       <c r="C76" s="27" t="s">
         <v>395</v>
       </c>
@@ -20331,7 +20340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:15">
       <c r="C77" s="27" t="s">
         <v>396</v>
       </c>
@@ -20374,7 +20383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:15">
       <c r="C78" s="27" t="s">
         <v>397</v>
       </c>
@@ -20417,7 +20426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:15">
       <c r="C79" s="27" t="s">
         <v>399</v>
       </c>
@@ -20460,7 +20469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:15">
       <c r="C80" s="27" t="s">
         <v>398</v>
       </c>
@@ -20503,7 +20512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:15">
       <c r="C81" s="27" t="s">
         <v>400</v>
       </c>
@@ -20546,7 +20555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:15">
       <c r="C82" s="27" t="s">
         <v>401</v>
       </c>
@@ -20589,7 +20598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:15">
       <c r="C83" s="27" t="s">
         <v>402</v>
       </c>
@@ -20632,7 +20641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:15">
       <c r="C84" s="27" t="s">
         <v>403</v>
       </c>
@@ -20675,7 +20684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:15">
       <c r="C85" s="27" t="s">
         <v>404</v>
       </c>
@@ -20718,7 +20727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:15">
       <c r="C86" s="27" t="s">
         <v>405</v>
       </c>
@@ -20761,10 +20770,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:15">
       <c r="C87" s="54"/>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:15">
       <c r="B88" s="25" t="s">
         <v>349</v>
       </c>
@@ -20785,7 +20794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:15">
       <c r="C89" s="27" t="s">
         <v>365</v>
       </c>
@@ -20825,7 +20834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:15">
       <c r="C90" s="27" t="s">
         <v>364</v>
       </c>
@@ -20865,7 +20874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:15">
       <c r="B91" s="25" t="s">
         <v>350</v>
       </c>
@@ -20886,7 +20895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:15">
       <c r="C92" s="27" t="s">
         <v>365</v>
       </c>
@@ -20926,7 +20935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:15">
       <c r="C93" s="27" t="s">
         <v>364</v>
       </c>
@@ -20966,7 +20975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:15">
       <c r="E95" t="s">
         <v>356</v>
       </c>
@@ -20998,7 +21007,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:15">
       <c r="B96" s="25" t="s">
         <v>31</v>
       </c>
@@ -21019,7 +21028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:15">
       <c r="C97" s="24" t="s">
         <v>420</v>
       </c>
@@ -21059,7 +21068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:15">
       <c r="C98" s="24" t="s">
         <v>417</v>
       </c>
@@ -21099,7 +21108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:15">
       <c r="C99" s="24" t="s">
         <v>422</v>
       </c>
@@ -21139,7 +21148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:15">
       <c r="C100" s="24" t="s">
         <v>421</v>
       </c>
@@ -21179,7 +21188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:15">
       <c r="E102" t="s">
         <v>356</v>
       </c>
@@ -21202,7 +21211,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:15">
       <c r="B103" s="25" t="s">
         <v>1059</v>
       </c>
@@ -21219,7 +21228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:15">
       <c r="C104" s="24" t="s">
         <v>599</v>
       </c>
@@ -21253,7 +21262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:15">
       <c r="C105" s="24" t="s">
         <v>1014</v>
       </c>
@@ -21284,7 +21293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:15">
       <c r="C106" s="24" t="s">
         <v>346</v>
       </c>
@@ -21315,12 +21324,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:15">
       <c r="I108" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:15">
       <c r="E109" t="s">
         <v>356</v>
       </c>
@@ -21352,7 +21361,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:15">
       <c r="B110" s="25" t="s">
         <v>42</v>
       </c>
@@ -21373,7 +21382,7 @@
         <v>2701.5679999999998</v>
       </c>
     </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:15">
       <c r="C111" s="24" t="s">
         <v>434</v>
       </c>
@@ -21410,7 +21419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:15">
       <c r="C112" s="24" t="s">
         <v>435</v>
       </c>
@@ -21447,7 +21456,7 @@
         <v>2701.5679999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15">
       <c r="B113" s="25" t="s">
         <v>269</v>
       </c>
@@ -21472,7 +21481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15">
       <c r="C114" s="24" t="s">
         <v>452</v>
       </c>
@@ -21513,7 +21522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15">
       <c r="C115" s="24" t="s">
         <v>860</v>
       </c>
@@ -21538,7 +21547,7 @@
       <c r="N115" s="22"/>
       <c r="O115" s="22"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15">
       <c r="C116" s="24" t="s">
         <v>861</v>
       </c>
@@ -21553,7 +21562,7 @@
       <c r="N116" s="22"/>
       <c r="O116" s="22"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15">
       <c r="B117" s="25" t="s">
         <v>833</v>
       </c>
@@ -21574,7 +21583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15">
       <c r="C118" s="24" t="s">
         <v>834</v>
       </c>
@@ -21614,7 +21623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15">
       <c r="C119" s="24" t="s">
         <v>835</v>
       </c>
@@ -21654,7 +21663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="15.5">
       <c r="A122" s="52" t="s">
         <v>88</v>
       </c>
@@ -21662,13 +21671,13 @@
       <c r="C122" s="50"/>
       <c r="D122" s="52">
         <f>K125+M138</f>
-        <v>6597.268597013026</v>
+        <v>107445.33717529365</v>
       </c>
       <c r="E122" s="50" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15">
       <c r="A124" s="20"/>
       <c r="E124" t="s">
         <v>631</v>
@@ -21695,7 +21704,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15">
       <c r="B125" s="25" t="s">
         <v>514</v>
       </c>
@@ -21712,16 +21721,16 @@
       <c r="G125" s="25"/>
       <c r="H125" s="25">
         <f>H126+H127+H128+H129+H130+H131+H132+H133+H134+H135</f>
-        <v>27407.331570858958</v>
+        <v>448493.59355168958</v>
       </c>
       <c r="I125" s="25"/>
       <c r="J125" s="25"/>
       <c r="K125" s="25">
         <f>K126+K128+K129+K130+K131+K127+K132+K134+K133+K135</f>
-        <v>6587.9993170130256</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+        <v>100934.96417324306</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
       <c r="C126" s="24" t="s">
         <v>89</v>
       </c>
@@ -21734,22 +21743,22 @@
       </c>
       <c r="H126">
         <f>K126/E126</f>
-        <v>11998.580049698261</v>
+        <v>369187.07845225418</v>
       </c>
       <c r="I126" s="42">
         <f>H126/H125</f>
-        <v>0.43778724020166332</v>
+        <v>0.82317135352727122</v>
       </c>
       <c r="J126" s="42">
         <f>K126/K125</f>
-        <v>0.45896212598499025</v>
+        <v>0.92173355914888033</v>
       </c>
       <c r="K126">
         <f>IF(Betriebsdaten!C112&gt;0,Betriebsdaten!C112*Kalkulation!E126,Betriebsdaten!C111*10.4/1.1268*Kalkulation!E126)</f>
-        <v>3023.642172523962</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+        <v>93035.143769968054</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
       <c r="C127" s="24" t="s">
         <v>93</v>
       </c>
@@ -21762,22 +21771,22 @@
       </c>
       <c r="H127">
         <f t="shared" ref="H127:H135" si="1">K127/E127</f>
-        <v>7099.7515086971953</v>
+        <v>70997.515086971951</v>
       </c>
       <c r="I127" s="42">
         <f>H127/H125</f>
-        <v>0.25904570426133922</v>
+        <v>0.15830218337062907</v>
       </c>
       <c r="J127" s="42">
         <f>K127/K125</f>
-        <v>7.3120550972296375E-2</v>
+        <v>4.772559675538119E-2</v>
       </c>
       <c r="K127">
         <f>IF(Betriebsdaten!C115&gt;0,Betriebsdaten!C115*Kalkulation!E127,Betriebsdaten!C114*5/1.1268*Kalkulation!E127)</f>
-        <v>481.71813986510466</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4817.181398651046</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
       <c r="C128" s="24" t="s">
         <v>90</v>
       </c>
@@ -21794,18 +21803,18 @@
       </c>
       <c r="I128" s="42">
         <f>H128/H125</f>
-        <v>0.30316705553699741</v>
+        <v>1.8526463102099752E-2</v>
       </c>
       <c r="J128" s="42">
         <f>K128/K125</f>
-        <v>0.46791732304271338</v>
+        <v>3.0540844095738418E-2</v>
       </c>
       <c r="K128">
         <f>IF(Betriebsdaten!C119&gt;0,Betriebsdaten!C119*Kalkulation!E128,Betriebsdaten!C118*0.85*11.87*Kalkulation!E128)</f>
         <v>3082.639004623959</v>
       </c>
     </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:13">
       <c r="C129" s="24" t="s">
         <v>91</v>
       </c>
@@ -21833,7 +21842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:13">
       <c r="C130" s="24" t="s">
         <v>94</v>
       </c>
@@ -21861,7 +21870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:13">
       <c r="C131" s="24" t="s">
         <v>92</v>
       </c>
@@ -21889,7 +21898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:13">
       <c r="C132" s="24" t="s">
         <v>865</v>
       </c>
@@ -21917,7 +21926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:13">
       <c r="C133" s="24" t="s">
         <v>532</v>
       </c>
@@ -21945,7 +21954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:13">
       <c r="C134" s="24" t="s">
         <v>871</v>
       </c>
@@ -21972,7 +21981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:13">
       <c r="C135" s="24" t="s">
         <v>866</v>
       </c>
@@ -22000,11 +22009,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:13">
       <c r="I136" s="42"/>
       <c r="J136" s="42"/>
     </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:13">
       <c r="E137" t="s">
         <v>631</v>
       </c>
@@ -22033,7 +22042,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:13">
       <c r="B138" s="25" t="s">
         <v>100</v>
       </c>
@@ -22046,7 +22055,7 @@
       <c r="E138" s="25"/>
       <c r="F138" s="25">
         <f t="shared" ref="F138:M138" si="2">F139+F140+F141+F142+F143+F144+F145+F146+F147+F148</f>
-        <v>38</v>
+        <v>14941.999999999998</v>
       </c>
       <c r="G138" s="25">
         <f t="shared" si="2"/>
@@ -22054,7 +22063,7 @@
       </c>
       <c r="H138" s="25">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>14951.999999999998</v>
       </c>
       <c r="I138" s="43">
         <f t="shared" si="2"/>
@@ -22066,18 +22075,18 @@
       </c>
       <c r="K138" s="25">
         <f t="shared" si="2"/>
-        <v>7.3381799999999995</v>
+        <v>6506.0188199999993</v>
       </c>
       <c r="L138" s="25">
         <f t="shared" si="2"/>
-        <v>9.2692799999999984</v>
+        <v>6510.3730020505955</v>
       </c>
       <c r="M138" s="25">
         <f t="shared" si="2"/>
-        <v>9.2692799999999984</v>
-      </c>
-    </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.25">
+        <v>6510.3730020505955</v>
+      </c>
+    </row>
+    <row r="139" spans="2:13">
       <c r="C139" s="24" t="s">
         <v>526</v>
       </c>
@@ -22090,38 +22099,38 @@
       </c>
       <c r="F139">
         <f>IF(Betriebsdaten!C138&gt;0,Betriebsdaten!C138,Betriebsdaten!C135*Betriebsdaten!C137)*E7</f>
-        <v>13.333333333333332</v>
+        <v>13333.333333333332</v>
       </c>
       <c r="G139">
         <f>E150*I139</f>
-        <v>3.5087719298245612</v>
+        <v>8.9233926738946145</v>
       </c>
       <c r="H139">
         <f>F139+G139</f>
-        <v>16.842105263157894</v>
+        <v>13342.256726007226</v>
       </c>
       <c r="I139" s="42">
         <f>F139/F138</f>
-        <v>0.35087719298245612</v>
+        <v>0.89233926738946145</v>
       </c>
       <c r="J139" s="42">
         <f>M139/M138</f>
-        <v>0.88123576508979973</v>
+        <v>0.99395142337855491</v>
       </c>
       <c r="K139">
         <f t="shared" ref="K139:K148" si="3">F139*E139</f>
-        <v>6.4666666666666659</v>
+        <v>6466.6666666666661</v>
       </c>
       <c r="L139">
         <f>K139+I139*E150*E139</f>
-        <v>8.1684210526315777</v>
+        <v>6470.9945121135052</v>
       </c>
       <c r="M139">
         <f>L139</f>
-        <v>8.1684210526315777</v>
-      </c>
-    </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.25">
+        <v>6470.9945121135052</v>
+      </c>
+    </row>
+    <row r="140" spans="2:13">
       <c r="C140" s="24" t="s">
         <v>527</v>
       </c>
@@ -22134,38 +22143,38 @@
       </c>
       <c r="F140">
         <f>IF(Betriebsdaten!C140&gt;0,Betriebsdaten!C140,Betriebsdaten!C135*Betriebsdaten!C139)*E7</f>
-        <v>16</v>
+        <v>1600</v>
       </c>
       <c r="G140">
         <f>E150*I140</f>
-        <v>4.2105263157894735</v>
+        <v>1.070807120867354</v>
       </c>
       <c r="H140">
         <f t="shared" ref="H140:H148" si="4">F140+G140</f>
-        <v>20.210526315789473</v>
+        <v>1601.0708071208674</v>
       </c>
       <c r="I140" s="42">
         <f>F140/F138</f>
-        <v>0.42105263157894735</v>
+        <v>0.10708071208673539</v>
       </c>
       <c r="J140" s="42">
         <f>M140/M138</f>
-        <v>5.2968628915253287E-2</v>
+        <v>5.9743653390374497E-3</v>
       </c>
       <c r="K140">
         <f t="shared" si="3"/>
-        <v>0.38869333333333334</v>
+        <v>38.86933333333333</v>
       </c>
       <c r="L140">
         <f>K140+I140*E150*E140</f>
-        <v>0.49098105263157893</v>
+        <v>38.895346807656267</v>
       </c>
       <c r="M140">
         <f t="shared" ref="M140:M148" si="5">L140</f>
-        <v>0.49098105263157893</v>
-      </c>
-    </row>
-    <row r="141" spans="2:13" x14ac:dyDescent="0.25">
+        <v>38.895346807656267</v>
+      </c>
+    </row>
+    <row r="141" spans="2:13">
       <c r="C141" s="24" t="s">
         <v>528</v>
       </c>
@@ -22182,19 +22191,19 @@
       </c>
       <c r="G141">
         <f>E150*I141</f>
-        <v>2.2807017543859649</v>
+        <v>5.8002052380314991E-3</v>
       </c>
       <c r="H141">
         <f t="shared" si="4"/>
-        <v>10.94736842105263</v>
+        <v>8.6724668719046978</v>
       </c>
       <c r="I141" s="42">
         <f>F141/F138</f>
-        <v>0.22807017543859648</v>
+        <v>5.8002052380314994E-4</v>
       </c>
       <c r="J141" s="42">
         <f>M141/M138</f>
-        <v>6.5795605994946979E-2</v>
+        <v>7.4211282407572247E-5</v>
       </c>
       <c r="K141">
         <f t="shared" si="3"/>
@@ -22202,14 +22211,14 @@
       </c>
       <c r="L141">
         <f>K141+I141*E150*E141</f>
-        <v>0.60987789473684206</v>
+        <v>0.48314312943381071</v>
       </c>
       <c r="M141">
         <f t="shared" si="5"/>
-        <v>0.60987789473684206</v>
-      </c>
-    </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0.48314312943381071</v>
+      </c>
+    </row>
+    <row r="142" spans="2:13">
       <c r="C142" s="24" t="s">
         <v>529</v>
       </c>
@@ -22253,7 +22262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:13">
       <c r="C143" s="24" t="s">
         <v>530</v>
       </c>
@@ -22297,7 +22306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:13">
       <c r="C144" s="24" t="s">
         <v>531</v>
       </c>
@@ -22341,7 +22350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13">
       <c r="C145" s="24" t="s">
         <v>532</v>
       </c>
@@ -22385,7 +22394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13">
       <c r="C146" s="24" t="s">
         <v>880</v>
       </c>
@@ -22429,7 +22438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13">
       <c r="C147" s="24" t="s">
         <v>881</v>
       </c>
@@ -22473,7 +22482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13">
       <c r="C148" s="24" t="s">
         <v>623</v>
       </c>
@@ -22517,7 +22526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13">
       <c r="C149" s="24" t="s">
         <v>538</v>
       </c>
@@ -22526,10 +22535,10 @@
       </c>
       <c r="E149" s="9">
         <f>K138/F138</f>
-        <v>0.19310999999999998</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.43541820505956363</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="C150" s="24" t="s">
         <v>535</v>
       </c>
@@ -22541,7 +22550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13">
       <c r="C151" s="24" t="s">
         <v>884</v>
       </c>
@@ -22550,10 +22559,10 @@
       </c>
       <c r="E151" s="63">
         <f>F138+(E150*Betriebsdaten!C157)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>14951.999999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="15.5">
       <c r="A154" s="52" t="s">
         <v>116</v>
       </c>
@@ -22567,7 +22576,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13">
       <c r="A156" s="20"/>
       <c r="E156" t="s">
         <v>893</v>
@@ -22588,7 +22597,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13">
       <c r="B157" s="25" t="s">
         <v>115</v>
       </c>
@@ -22620,7 +22629,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13">
       <c r="C158" s="24" t="s">
         <v>542</v>
       </c>
@@ -22652,7 +22661,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13">
       <c r="C159" s="24" t="s">
         <v>543</v>
       </c>
@@ -22684,7 +22693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13">
       <c r="C160" s="24" t="s">
         <v>615</v>
       </c>
@@ -22716,12 +22725,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9">
       <c r="I161" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9">
       <c r="B162" s="25" t="s">
         <v>547</v>
       </c>
@@ -22740,7 +22749,7 @@
         <v>27735.39</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9">
       <c r="E163" t="s">
         <v>356</v>
       </c>
@@ -22757,7 +22766,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9">
       <c r="B164" s="25" t="s">
         <v>545</v>
       </c>
@@ -22785,7 +22794,7 @@
         <v>24712</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9">
       <c r="C165" s="24" t="s">
         <v>126</v>
       </c>
@@ -22813,7 +22822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9">
       <c r="C166" s="24" t="s">
         <v>125</v>
       </c>
@@ -22841,7 +22850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9">
       <c r="C167" s="24" t="s">
         <v>335</v>
       </c>
@@ -22869,7 +22878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9">
       <c r="C168" s="24" t="s">
         <v>158</v>
       </c>
@@ -22897,7 +22906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9">
       <c r="C169" s="24" t="s">
         <v>339</v>
       </c>
@@ -22925,7 +22934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9">
       <c r="C170" s="24" t="s">
         <v>336</v>
       </c>
@@ -22953,7 +22962,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9">
       <c r="C171" s="24" t="s">
         <v>337</v>
       </c>
@@ -22981,7 +22990,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9">
       <c r="C172" s="24" t="s">
         <v>338</v>
       </c>
@@ -23009,7 +23018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9">
       <c r="C173" s="24" t="s">
         <v>340</v>
       </c>
@@ -23037,7 +23046,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9">
       <c r="C174" s="24" t="s">
         <v>341</v>
       </c>
@@ -23065,7 +23074,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9">
       <c r="C175" s="24" t="s">
         <v>342</v>
       </c>
@@ -23093,7 +23102,7 @@
         <v>23595</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9">
       <c r="B177" s="25" t="s">
         <v>552</v>
       </c>
@@ -23121,7 +23130,7 @@
         <v>3023.39</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9">
       <c r="C178" s="24" t="s">
         <v>127</v>
       </c>
@@ -23149,7 +23158,7 @@
         <v>5.82</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9">
       <c r="C179" s="24" t="s">
         <v>128</v>
       </c>
@@ -23177,7 +23186,7 @@
         <v>3.3850000000000002</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9">
       <c r="C180" s="24" t="s">
         <v>129</v>
       </c>
@@ -23205,7 +23214,7 @@
         <v>35.44</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9">
       <c r="C181" s="24" t="s">
         <v>130</v>
       </c>
@@ -23233,7 +23242,7 @@
         <v>17.72</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9">
       <c r="C182" s="24" t="s">
         <v>131</v>
       </c>
@@ -23261,7 +23270,7 @@
         <v>1.885</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9">
       <c r="C183" s="24" t="s">
         <v>132</v>
       </c>
@@ -23289,7 +23298,7 @@
         <v>9.0399999999999991</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9">
       <c r="C184" s="24" t="s">
         <v>325</v>
       </c>
@@ -23317,7 +23326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9">
       <c r="C185" s="24" t="s">
         <v>133</v>
       </c>
@@ -23345,7 +23354,7 @@
         <v>8.1000000000000014</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9">
       <c r="C186" s="24" t="s">
         <v>334</v>
       </c>
@@ -23373,7 +23382,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9">
       <c r="C187" s="24" t="s">
         <v>134</v>
       </c>
@@ -23401,7 +23410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9">
       <c r="C188" s="24" t="s">
         <v>135</v>
       </c>
@@ -23429,7 +23438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9">
       <c r="C189" s="24" t="s">
         <v>136</v>
       </c>
@@ -23457,7 +23466,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:9">
       <c r="C190" s="24" t="s">
         <v>137</v>
       </c>
@@ -23485,7 +23494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:9">
       <c r="C191" s="24" t="s">
         <v>138</v>
       </c>
@@ -23513,7 +23522,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:9">
       <c r="C192" s="24" t="s">
         <v>139</v>
       </c>
@@ -23541,7 +23550,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:9">
       <c r="C193" s="24" t="s">
         <v>140</v>
       </c>
@@ -23569,7 +23578,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9">
       <c r="C194" s="24" t="s">
         <v>322</v>
       </c>
@@ -23597,7 +23606,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9">
       <c r="C195" s="24" t="s">
         <v>323</v>
       </c>
@@ -23625,7 +23634,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:9">
       <c r="C196" s="24" t="s">
         <v>324</v>
       </c>
@@ -23653,7 +23662,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:9">
       <c r="C197" s="24" t="s">
         <v>326</v>
       </c>
@@ -23681,7 +23690,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:9">
       <c r="C198" s="24" t="s">
         <v>327</v>
       </c>
@@ -23709,7 +23718,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:9">
       <c r="C199" s="24" t="s">
         <v>328</v>
       </c>
@@ -23737,7 +23746,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:9">
       <c r="C200" s="24" t="s">
         <v>329</v>
       </c>
@@ -23765,7 +23774,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:9">
       <c r="C201" s="24" t="s">
         <v>331</v>
       </c>
@@ -23793,7 +23802,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:9">
       <c r="C202" s="24" t="s">
         <v>332</v>
       </c>
@@ -23821,7 +23830,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:9">
       <c r="C203" s="24" t="s">
         <v>333</v>
       </c>
@@ -23849,7 +23858,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:9">
       <c r="E207" t="s">
         <v>356</v>
       </c>
@@ -23866,7 +23875,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:9">
       <c r="B208" s="25" t="s">
         <v>554</v>
       </c>
@@ -23894,7 +23903,7 @@
         <v>14377</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9">
       <c r="C209" s="24" t="s">
         <v>142</v>
       </c>
@@ -23922,7 +23931,7 @@
         <v>8833</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9">
       <c r="C210" s="24" t="s">
         <v>144</v>
       </c>
@@ -23950,7 +23959,7 @@
         <v>5544</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9">
       <c r="E212" t="s">
         <v>901</v>
       </c>
@@ -23967,7 +23976,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9">
       <c r="B213" s="25" t="s">
         <v>220</v>
       </c>
@@ -23995,7 +24004,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9">
       <c r="C214" s="24" t="s">
         <v>229</v>
       </c>
@@ -24023,7 +24032,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9">
       <c r="C215" s="24" t="s">
         <v>226</v>
       </c>
@@ -24051,7 +24060,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9">
       <c r="C216" s="24" t="s">
         <v>222</v>
       </c>
@@ -24079,7 +24088,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9">
       <c r="C217" s="24" t="s">
         <v>223</v>
       </c>
@@ -24107,7 +24116,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9">
       <c r="C218" s="24" t="s">
         <v>221</v>
       </c>
@@ -24135,7 +24144,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9">
       <c r="C219" s="24" t="s">
         <v>224</v>
       </c>
@@ -24163,7 +24172,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9">
       <c r="C220" s="24" t="s">
         <v>225</v>
       </c>
@@ -24191,7 +24200,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9">
       <c r="C221" s="24" t="s">
         <v>227</v>
       </c>
@@ -24219,7 +24228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="15.5">
       <c r="A224" s="52" t="s">
         <v>146</v>
       </c>
@@ -24227,13 +24236,13 @@
       <c r="C224" s="50"/>
       <c r="D224" s="52">
         <f>L227+L233+H241+H249+I253+I263+I269+I275+H281+H287+G296</f>
-        <v>356059.55291732773</v>
+        <v>157135.5514773278</v>
       </c>
       <c r="E224" s="50" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12">
       <c r="A226" s="20"/>
       <c r="E226" t="s">
         <v>356</v>
@@ -24257,7 +24266,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12">
       <c r="A227" s="20"/>
       <c r="B227" s="25" t="s">
         <v>902</v>
@@ -24279,7 +24288,7 @@
         <v>3967.3547162611203</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12">
       <c r="A228" s="20"/>
       <c r="C228" s="24" t="s">
         <v>903</v>
@@ -24308,7 +24317,7 @@
         <v>3967.3547162611203</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12">
       <c r="A229" s="20"/>
       <c r="G229" t="s">
         <v>937</v>
@@ -24329,7 +24338,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12">
       <c r="A230" s="20"/>
       <c r="C230" s="24" t="s">
         <v>924</v>
@@ -24369,10 +24378,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12">
       <c r="A231" s="20"/>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12">
       <c r="A232" s="20"/>
       <c r="E232" t="s">
         <v>960</v>
@@ -24399,7 +24408,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12">
       <c r="A233" s="20"/>
       <c r="B233" s="25" t="s">
         <v>163</v>
@@ -24417,14 +24426,14 @@
       </c>
       <c r="K233" s="25">
         <f>K234+K235+K236+K237+K238</f>
-        <v>240580.8768</v>
+        <v>48116.175360000001</v>
       </c>
       <c r="L233" s="25">
         <f>L234+L235+L236+L237+L238</f>
-        <v>240580.8768</v>
-      </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+        <v>48116.175360000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12">
       <c r="A234" s="20"/>
       <c r="C234" s="24" t="s">
         <v>156</v>
@@ -24444,7 +24453,7 @@
       <c r="H234" s="37"/>
       <c r="I234">
         <f>Betriebsdaten!C245</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J234">
         <f>F234*E234</f>
@@ -24459,7 +24468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12">
       <c r="A235" s="20"/>
       <c r="C235" s="24" t="s">
         <v>157</v>
@@ -24485,7 +24494,7 @@
       </c>
       <c r="I235">
         <f>Betriebsdaten!C245</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J235">
         <f>F235*E235</f>
@@ -24500,7 +24509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12">
       <c r="A236" s="20"/>
       <c r="C236" s="24" t="s">
         <v>159</v>
@@ -24520,7 +24529,7 @@
       <c r="H236" s="37"/>
       <c r="I236">
         <f>Betriebsdaten!C245</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J236">
         <f>F236*E236</f>
@@ -24535,7 +24544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12">
       <c r="A237" s="20"/>
       <c r="C237" s="24" t="s">
         <v>160</v>
@@ -24555,7 +24564,7 @@
       <c r="H237" s="37"/>
       <c r="I237">
         <f>Betriebsdaten!C245</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J237">
         <f>F237*E237</f>
@@ -24563,14 +24572,14 @@
       </c>
       <c r="K237">
         <f>J237/I237</f>
-        <v>240580.8768</v>
+        <v>48116.175360000001</v>
       </c>
       <c r="L237">
         <f>K237*Betriebsdaten!C243</f>
-        <v>240580.8768</v>
-      </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+        <v>48116.175360000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12">
       <c r="A238" s="20"/>
       <c r="C238" s="24" t="s">
         <v>957</v>
@@ -24590,7 +24599,7 @@
       <c r="H238" s="37"/>
       <c r="I238">
         <f>Betriebsdaten!C245</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J238">
         <f>F238*E238</f>
@@ -24605,10 +24614,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12">
       <c r="A239" s="20"/>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12">
       <c r="E240" t="s">
         <v>960</v>
       </c>
@@ -24622,7 +24631,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="241" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:12">
       <c r="B241" s="25" t="s">
         <v>962</v>
       </c>
@@ -24641,7 +24650,7 @@
       <c r="I241" s="9"/>
       <c r="L241" s="9"/>
     </row>
-    <row r="242" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:12">
       <c r="C242" s="24" t="s">
         <v>156</v>
       </c>
@@ -24665,7 +24674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:12">
       <c r="C243" s="24" t="s">
         <v>157</v>
       </c>
@@ -24689,7 +24698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:12">
       <c r="C244" s="24" t="s">
         <v>159</v>
       </c>
@@ -24713,7 +24722,7 @@
         <v>2178.6662400000009</v>
       </c>
     </row>
-    <row r="245" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:12">
       <c r="C245" s="24" t="s">
         <v>160</v>
       </c>
@@ -24737,7 +24746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:12">
       <c r="C246" s="24" t="s">
         <v>957</v>
       </c>
@@ -24761,7 +24770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:12">
       <c r="E248" t="s">
         <v>1040</v>
       </c>
@@ -24773,7 +24782,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:12">
       <c r="B249" s="25" t="s">
         <v>963</v>
       </c>
@@ -24788,7 +24797,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:12">
       <c r="C250" s="24" t="s">
         <v>613</v>
       </c>
@@ -24809,12 +24818,12 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:12">
       <c r="G251" s="17"/>
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:12">
       <c r="E252" t="s">
         <v>356</v>
       </c>
@@ -24831,7 +24840,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="253" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:12">
       <c r="B253" s="25" t="s">
         <v>563</v>
       </c>
@@ -24850,7 +24859,7 @@
         <v>1013.7600000000001</v>
       </c>
     </row>
-    <row r="254" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:12">
       <c r="C254" s="24" t="s">
         <v>567</v>
       </c>
@@ -24878,7 +24887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:12">
       <c r="C255" s="24" t="s">
         <v>568</v>
       </c>
@@ -24906,7 +24915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:12">
       <c r="C256" s="24" t="s">
         <v>569</v>
       </c>
@@ -24934,7 +24943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9">
       <c r="C257" s="24" t="s">
         <v>570</v>
       </c>
@@ -24962,7 +24971,7 @@
         <v>1013.7600000000001</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9">
       <c r="C258" s="24" t="s">
         <v>571</v>
       </c>
@@ -24990,7 +24999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9">
       <c r="C259" s="24" t="s">
         <v>572</v>
       </c>
@@ -25018,7 +25027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9">
       <c r="A260" s="59"/>
       <c r="B260" s="59"/>
       <c r="C260" s="24" t="s">
@@ -25048,7 +25057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9">
       <c r="E262" t="s">
         <v>356</v>
       </c>
@@ -25065,7 +25074,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9">
       <c r="B263" s="25" t="s">
         <v>573</v>
       </c>
@@ -25084,7 +25093,7 @@
         <v>657.67680000000007</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9">
       <c r="C264" s="24" t="s">
         <v>579</v>
       </c>
@@ -25112,7 +25121,7 @@
         <v>657.67680000000007</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9">
       <c r="C265" s="24" t="s">
         <v>580</v>
       </c>
@@ -25140,7 +25149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9">
       <c r="C266" s="24" t="s">
         <v>581</v>
       </c>
@@ -25168,7 +25177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9">
       <c r="E268" t="s">
         <v>356</v>
       </c>
@@ -25185,7 +25194,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9">
       <c r="B269" s="25" t="s">
         <v>585</v>
       </c>
@@ -25204,7 +25213,7 @@
         <v>198.41024000000002</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9">
       <c r="C270" s="24" t="s">
         <v>588</v>
       </c>
@@ -25232,7 +25241,7 @@
         <v>198.41024000000002</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9">
       <c r="C271" s="24" t="s">
         <v>589</v>
       </c>
@@ -25260,7 +25269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9">
       <c r="C272" s="24" t="s">
         <v>590</v>
       </c>
@@ -25288,7 +25297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:9">
       <c r="E274" t="s">
         <v>356</v>
       </c>
@@ -25305,7 +25314,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="275" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:9">
       <c r="B275" s="25" t="s">
         <v>593</v>
       </c>
@@ -25324,7 +25333,7 @@
         <v>42.7101744</v>
       </c>
     </row>
-    <row r="276" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:9">
       <c r="C276" s="24" t="s">
         <v>618</v>
       </c>
@@ -25351,7 +25360,7 @@
         <v>42.7101744</v>
       </c>
     </row>
-    <row r="277" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:9">
       <c r="C277" s="24" t="s">
         <v>595</v>
       </c>
@@ -25378,7 +25387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:9">
       <c r="C278" s="24" t="s">
         <v>596</v>
       </c>
@@ -25405,7 +25414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:9">
       <c r="E280" t="s">
         <v>356</v>
       </c>
@@ -25419,7 +25428,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="281" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:9">
       <c r="B281" s="25" t="s">
         <v>609</v>
       </c>
@@ -25430,11 +25439,11 @@
       <c r="G281" s="25"/>
       <c r="H281" s="25">
         <f>H282+H283+H284</f>
-        <v>7177.4394400000001</v>
+        <v>718.13944000000004</v>
       </c>
       <c r="I281" s="9"/>
     </row>
-    <row r="282" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:9">
       <c r="C282" s="24" t="s">
         <v>610</v>
       </c>
@@ -25447,17 +25456,17 @@
       </c>
       <c r="F282">
         <f>Betriebsdaten!C281</f>
-        <v>3500</v>
+        <v>350</v>
       </c>
       <c r="G282">
         <v>1</v>
       </c>
       <c r="H282">
         <f>F282*E282</f>
-        <v>6055</v>
-      </c>
-    </row>
-    <row r="283" spans="2:9" x14ac:dyDescent="0.25">
+        <v>605.5</v>
+      </c>
+    </row>
+    <row r="283" spans="2:9">
       <c r="C283" s="24" t="s">
         <v>612</v>
       </c>
@@ -25470,17 +25479,17 @@
       </c>
       <c r="F283">
         <f>Betriebsdaten!C282</f>
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G283">
         <v>1</v>
       </c>
       <c r="H283">
         <f>F283*E283</f>
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="284" spans="2:9" x14ac:dyDescent="0.25">
+        <v>112.2</v>
+      </c>
+    </row>
+    <row r="284" spans="2:9">
       <c r="C284" s="24" t="s">
         <v>1030</v>
       </c>
@@ -25503,10 +25512,10 @@
         <v>0.43944000000000005</v>
       </c>
     </row>
-    <row r="285" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:9">
       <c r="C285" s="24"/>
     </row>
-    <row r="286" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:9">
       <c r="E286" t="s">
         <v>356</v>
       </c>
@@ -25520,7 +25529,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="287" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:9">
       <c r="B287" s="25" t="s">
         <v>196</v>
       </c>
@@ -25539,7 +25548,7 @@
       </c>
       <c r="I287" s="9"/>
     </row>
-    <row r="288" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:9">
       <c r="C288" s="24" t="s">
         <v>602</v>
       </c>
@@ -25563,7 +25572,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="289" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:9">
       <c r="C289" s="24" t="s">
         <v>603</v>
       </c>
@@ -25587,7 +25596,7 @@
         <v>834.20250666666664</v>
       </c>
     </row>
-    <row r="290" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:9">
       <c r="C290" s="24" t="s">
         <v>604</v>
       </c>
@@ -25611,7 +25620,7 @@
         <v>175.2</v>
       </c>
     </row>
-    <row r="291" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:9">
       <c r="C291" s="24" t="s">
         <v>605</v>
       </c>
@@ -25635,7 +25644,7 @@
         <v>259.5</v>
       </c>
     </row>
-    <row r="292" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:9">
       <c r="C292" s="24" t="s">
         <v>606</v>
       </c>
@@ -25659,7 +25668,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="293" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:9">
       <c r="C293" s="24" t="s">
         <v>621</v>
       </c>
@@ -25683,7 +25692,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="295" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:9">
       <c r="E295" t="s">
         <v>1040</v>
       </c>
@@ -25694,7 +25703,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="296" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:9">
       <c r="B296" s="25" t="s">
         <v>1033</v>
       </c>
@@ -25709,7 +25718,7 @@
       <c r="H296" s="9"/>
       <c r="I296" s="9"/>
     </row>
-    <row r="297" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:9">
       <c r="C297" s="24" t="s">
         <v>1034</v>
       </c>
@@ -25729,7 +25738,7 @@
         <v>71680</v>
       </c>
     </row>
-    <row r="298" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:9">
       <c r="C298" s="24" t="s">
         <v>1035</v>
       </c>
@@ -25749,7 +25758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:9">
       <c r="C299" s="24" t="s">
         <v>1036</v>
       </c>
@@ -25769,7 +25778,7 @@
         <v>26880</v>
       </c>
     </row>
-    <row r="300" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:9">
       <c r="C300" s="24" t="s">
         <v>1037</v>
       </c>
@@ -25789,7 +25798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:9">
       <c r="E303">
         <v>3.24</v>
       </c>
@@ -25803,7 +25812,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="305" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:7">
       <c r="E305" t="s">
         <v>824</v>
       </c>
@@ -25814,7 +25823,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="306" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:7">
       <c r="B306" s="25" t="s">
         <v>41</v>
       </c>
@@ -25835,7 +25844,7 @@
         <v>460.33196378399987</v>
       </c>
     </row>
-    <row r="307" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:7">
       <c r="C307" t="s">
         <v>823</v>
       </c>
@@ -25848,7 +25857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:7">
       <c r="C308" t="s">
         <v>818</v>
       </c>
@@ -25861,7 +25870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:7">
       <c r="C309" t="s">
         <v>819</v>
       </c>
@@ -25874,7 +25883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:7">
       <c r="E311" t="s">
         <v>960</v>
       </c>
@@ -25885,7 +25894,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="312" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:7">
       <c r="B312" s="25" t="s">
         <v>997</v>
       </c>
@@ -25895,7 +25904,7 @@
       <c r="F312" s="25"/>
       <c r="G312" s="25"/>
     </row>
-    <row r="313" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:7">
       <c r="C313" t="s">
         <v>1044</v>
       </c>
@@ -25911,7 +25920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:7">
       <c r="C314" t="s">
         <v>1045</v>
       </c>
@@ -25927,7 +25936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:7">
       <c r="C315" t="s">
         <v>1046</v>
       </c>
@@ -25943,7 +25952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:7">
       <c r="C316" t="s">
         <v>1047</v>
       </c>
@@ -25975,24 +25984,24 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.1796875" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="9" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="23"/>
       <c r="B2" s="25"/>
       <c r="C2" s="23"/>
@@ -26005,14 +26014,14 @@
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="23"/>
       <c r="B3" s="9" t="s">
         <v>1061</v>
       </c>
       <c r="C3">
         <f>C5+C6+C7+C8</f>
-        <v>408999.97951434075</v>
+        <v>310924.04665262147</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
@@ -26022,7 +26031,7 @@
       <c r="J3" s="23"/>
       <c r="K3" s="23"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="23"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -26041,7 +26050,7 @@
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="23"/>
       <c r="B5" t="s">
         <v>1043</v>
@@ -26052,7 +26061,7 @@
       </c>
       <c r="D5" s="42">
         <f>C5/C3</f>
-        <v>8.3911202246885804E-3</v>
+        <v>1.1037962605170745E-2</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
@@ -26062,18 +26071,18 @@
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="23"/>
       <c r="B6" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="56">
         <f>Kalkulation!D122</f>
-        <v>6597.268597013026</v>
+        <v>107445.33717529365</v>
       </c>
       <c r="D6" s="42">
         <f>C6/C3</f>
-        <v>1.6130241876409938E-2</v>
+        <v>0.34556779487479294</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
@@ -26083,7 +26092,7 @@
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="23"/>
       <c r="B7" t="s">
         <v>116</v>
@@ -26094,7 +26103,7 @@
       </c>
       <c r="D7" s="42">
         <f>C7/C3</f>
-        <v>0.10491734021833957</v>
+        <v>0.13801180854931538</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
@@ -26104,18 +26113,18 @@
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="23"/>
       <c r="B8" t="s">
         <v>146</v>
       </c>
       <c r="C8" s="56">
         <f>Kalkulation!D224</f>
-        <v>356059.55291732773</v>
+        <v>157135.5514773278</v>
       </c>
       <c r="D8" s="42">
         <f>C8/C3</f>
-        <v>0.8705612976805619</v>
+        <v>0.5053824339707208</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
@@ -26125,14 +26134,14 @@
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="23"/>
       <c r="B9" t="s">
         <v>1055</v>
       </c>
       <c r="C9" s="56">
         <f>SUBTOTAL(109,Tabelle3[kg CO2eq])</f>
-        <v>408999.97951434075</v>
+        <v>310924.04665262147</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="23"/>
@@ -26143,7 +26152,7 @@
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -26156,12 +26165,12 @@
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="23"/>
       <c r="B11" s="23"/>
       <c r="C11" s="57">
         <f>Tabelle3[[#Totals],[kg CO2eq]]/1000</f>
-        <v>408.99997951434074</v>
+        <v>310.92404665262148</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>1056</v>
@@ -26174,7 +26183,7 @@
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -26187,7 +26196,7 @@
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -26200,7 +26209,7 @@
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -26213,7 +26222,7 @@
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -26226,7 +26235,7 @@
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -26239,7 +26248,7 @@
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -26252,7 +26261,7 @@
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -26265,7 +26274,7 @@
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.5">
       <c r="B22" s="53" t="s">
         <v>1043</v>
       </c>
@@ -26274,7 +26283,7 @@
         <v>3431.9679999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="B23" t="s">
         <v>1057</v>
       </c>
@@ -26285,7 +26294,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="B24" t="s">
         <v>854</v>
       </c>
@@ -26298,7 +26307,7 @@
         <v>0.21282249717946092</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="B25" t="s">
         <v>1058</v>
       </c>
@@ -26311,7 +26320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="B26" t="s">
         <v>1059</v>
       </c>
@@ -26324,7 +26333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="B27" t="s">
         <v>42</v>
       </c>
@@ -26337,7 +26346,7 @@
         <v>0.78717750282053911</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="B28" t="s">
         <v>269</v>
       </c>
@@ -26350,7 +26359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="B29" t="s">
         <v>1060</v>
       </c>
@@ -26363,7 +26372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="B30" t="s">
         <v>1055</v>
       </c>
@@ -26373,16 +26382,16 @@
       </c>
       <c r="D30" s="42"/>
     </row>
-    <row r="39" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="15.5">
       <c r="B39" s="53" t="s">
         <v>88</v>
       </c>
       <c r="C39">
         <f>C41+C42</f>
-        <v>6597.268597013026</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+        <v>107445.33717529365</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
       <c r="B40" t="s">
         <v>1062</v>
       </c>
@@ -26393,48 +26402,48 @@
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7">
       <c r="B41" t="s">
         <v>514</v>
       </c>
       <c r="C41">
         <f>Kalkulation!K125</f>
-        <v>6587.9993170130256</v>
+        <v>100934.96417324306</v>
       </c>
       <c r="D41" s="42">
         <f>C41/C39</f>
-        <v>0.99859498217122811</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+        <v>0.93940757995454816</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
       <c r="B42" t="s">
         <v>100</v>
       </c>
       <c r="C42">
         <f>Kalkulation!M138</f>
-        <v>9.2692799999999984</v>
+        <v>6510.3730020505955</v>
       </c>
       <c r="D42" s="42">
         <f>C42/C39</f>
-        <v>1.4050178287718573E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+        <v>6.0592420045451845E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
       <c r="B43" t="s">
         <v>1055</v>
       </c>
       <c r="C43">
         <f>SUBTOTAL(109,Tabelle5[kg CO2 eq])</f>
-        <v>6597.268597013026</v>
+        <v>107445.33717529365</v>
       </c>
       <c r="D43" s="42"/>
     </row>
-    <row r="46" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="15.5">
       <c r="E46" s="53" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7">
       <c r="E47" t="s">
         <v>1062</v>
       </c>
@@ -26445,33 +26454,33 @@
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7">
       <c r="E48" t="s">
         <v>89</v>
       </c>
       <c r="F48" s="55">
         <f>Kalkulation!K126</f>
-        <v>3023.642172523962</v>
+        <v>93035.143769968054</v>
       </c>
       <c r="G48" s="42">
         <f>F48/C41</f>
-        <v>0.45896212598499025</v>
-      </c>
-    </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.92173355914888033</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9">
       <c r="E49" t="s">
         <v>93</v>
       </c>
       <c r="F49" s="55">
         <f>Kalkulation!K127</f>
-        <v>481.71813986510466</v>
+        <v>4817.181398651046</v>
       </c>
       <c r="G49" s="42">
         <f>F49/C41</f>
-        <v>7.3120550972296375E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
+        <v>4.772559675538119E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9">
       <c r="E50" t="s">
         <v>90</v>
       </c>
@@ -26481,10 +26490,10 @@
       </c>
       <c r="G50" s="42">
         <f>F50/C41</f>
-        <v>0.46791732304271338</v>
-      </c>
-    </row>
-    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
+        <v>3.0540844095738418E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="5:9">
       <c r="E51" t="s">
         <v>91</v>
       </c>
@@ -26497,7 +26506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:9">
       <c r="E52" t="s">
         <v>94</v>
       </c>
@@ -26510,7 +26519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:9">
       <c r="E53" t="s">
         <v>92</v>
       </c>
@@ -26523,7 +26532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:9">
       <c r="E54" t="s">
         <v>865</v>
       </c>
@@ -26536,7 +26545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:9">
       <c r="E55" t="s">
         <v>532</v>
       </c>
@@ -26549,7 +26558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:9">
       <c r="E56" t="s">
         <v>871</v>
       </c>
@@ -26562,7 +26571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:9">
       <c r="E57" t="s">
         <v>866</v>
       </c>
@@ -26575,22 +26584,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:9">
       <c r="E58" t="s">
         <v>1055</v>
       </c>
       <c r="F58" s="55">
         <f>SUBTOTAL(109,Tabelle6[kg CO2 eq])</f>
-        <v>6587.9993170130256</v>
+        <v>100934.96417324306</v>
       </c>
       <c r="G58" s="42"/>
     </row>
-    <row r="62" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:9" ht="15.5">
       <c r="E62" s="53" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:9">
       <c r="E63" t="s">
         <v>1062</v>
       </c>
@@ -26607,70 +26616,70 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="64" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:9">
       <c r="E64" t="s">
         <v>526</v>
       </c>
       <c r="F64">
         <f>Kalkulation!M139</f>
-        <v>8.1684210526315777</v>
+        <v>6470.9945121135052</v>
       </c>
       <c r="G64" s="42">
         <f>F64/C42</f>
-        <v>0.88123576508979973</v>
+        <v>0.99395142337855491</v>
       </c>
       <c r="H64" s="42">
         <f>Kalkulation!I139</f>
-        <v>0.35087719298245612</v>
+        <v>0.89233926738946145</v>
       </c>
       <c r="I64">
         <f>F64/Kalkulation!H139</f>
-        <v>0.48499999999999993</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.48500000000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
       <c r="E65" t="s">
         <v>527</v>
       </c>
       <c r="F65">
         <f>Kalkulation!M140</f>
-        <v>0.49098105263157893</v>
+        <v>38.895346807656267</v>
       </c>
       <c r="G65" s="42">
         <f>F65/C42</f>
-        <v>5.2968628915253287E-2</v>
+        <v>5.9743653390374497E-3</v>
       </c>
       <c r="H65" s="42">
         <f>Kalkulation!I140</f>
-        <v>0.42105263157894735</v>
+        <v>0.10708071208673539</v>
       </c>
       <c r="I65">
         <f>F65/Kalkulation!H139</f>
-        <v>2.9152000000000001E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2.9152000000000002E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
       <c r="E66" t="s">
         <v>528</v>
       </c>
       <c r="F66">
         <f>Kalkulation!M141</f>
-        <v>0.60987789473684206</v>
+        <v>0.48314312943381071</v>
       </c>
       <c r="G66" s="42">
         <f>F66/C42</f>
-        <v>6.5795605994946979E-2</v>
+        <v>7.4211282407572247E-5</v>
       </c>
       <c r="H66" s="42">
         <f>Kalkulation!I141</f>
-        <v>0.22807017543859648</v>
+        <v>5.8002052380314994E-4</v>
       </c>
       <c r="I66">
         <f>F66/Kalkulation!H139</f>
-        <v>3.6211500000000001E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3.6211500000000004E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
       <c r="E67" t="s">
         <v>529</v>
       </c>
@@ -26691,7 +26700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9">
       <c r="E68" t="s">
         <v>530</v>
       </c>
@@ -26712,7 +26721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9">
       <c r="E69" t="s">
         <v>531</v>
       </c>
@@ -26733,7 +26742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9">
       <c r="E70" t="s">
         <v>532</v>
       </c>
@@ -26754,7 +26763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9">
       <c r="E71" t="s">
         <v>880</v>
       </c>
@@ -26775,7 +26784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9">
       <c r="E72" t="s">
         <v>881</v>
       </c>
@@ -26796,7 +26805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9">
       <c r="E73" t="s">
         <v>623</v>
       </c>
@@ -26817,21 +26826,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9">
       <c r="E74" t="s">
         <v>1055</v>
       </c>
       <c r="F74">
         <f>SUBTOTAL(109,Tabelle7[kg CO2 eq])</f>
-        <v>9.2692799999999984</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>6510.3730020505955</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" ht="15.5">
       <c r="B79" s="53" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9">
       <c r="B80" t="s">
         <v>1062</v>
       </c>
@@ -26842,7 +26851,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4">
       <c r="B81" t="s">
         <v>115</v>
       </c>
@@ -26855,7 +26864,7 @@
         <v>1.3702719500437997E-3</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4">
       <c r="B82" t="s">
         <v>547</v>
       </c>
@@ -26868,7 +26877,7 @@
         <v>0.64634399558716493</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4">
       <c r="B83" t="s">
         <v>700</v>
       </c>
@@ -26881,7 +26890,7 @@
         <v>0.33504081336360048</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4">
       <c r="B84" t="s">
         <v>220</v>
       </c>
@@ -26894,7 +26903,7 @@
         <v>1.7244919099190677E-2</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4">
       <c r="B85" t="s">
         <v>1055</v>
       </c>
@@ -26904,12 +26913,12 @@
       </c>
       <c r="D85" s="42"/>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4">
       <c r="B92" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4">
       <c r="B93" t="s">
         <v>1062</v>
       </c>
@@ -26920,67 +26929,67 @@
         <v>161</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4">
       <c r="B94" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4">
       <c r="B95" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:4">
       <c r="B96" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2">
       <c r="B97" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2">
       <c r="B98" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2">
       <c r="B99" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2">
       <c r="B100" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2">
       <c r="B101" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2">
       <c r="B102" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2">
       <c r="B103" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2">
       <c r="B104" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2">
       <c r="B105" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2">
       <c r="B106" t="s">
         <v>997</v>
       </c>
@@ -27007,9 +27016,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="9" t="s">
         <v>1080</v>
       </c>
@@ -27027,12 +27036,12 @@
       <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -27040,7 +27049,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="40" t="s">
         <v>854</v>
       </c>
@@ -27052,7 +27061,7 @@
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>346</v>
       </c>
@@ -27060,7 +27069,7 @@
         <v>0.17069999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>364</v>
       </c>
@@ -27068,7 +27077,7 @@
         <v>1.5641297000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>354</v>
       </c>
@@ -27076,7 +27085,7 @@
         <v>14.365981</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>394</v>
       </c>
@@ -27084,7 +27093,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>395</v>
       </c>
@@ -27092,7 +27101,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>396</v>
       </c>
@@ -27100,7 +27109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>397</v>
       </c>
@@ -27108,7 +27117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>398</v>
       </c>
@@ -27116,7 +27125,7 @@
         <v>2.7889699999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>399</v>
       </c>
@@ -27124,7 +27133,7 @@
         <v>2.7889699999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>400</v>
       </c>
@@ -27132,7 +27141,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>401</v>
       </c>
@@ -27140,7 +27149,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>402</v>
       </c>
@@ -27148,7 +27157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>403</v>
       </c>
@@ -27156,7 +27165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>404</v>
       </c>
@@ -27164,7 +27173,7 @@
         <v>2.7889699999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>405</v>
       </c>
@@ -27172,7 +27181,7 @@
         <v>2.7889699999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>841</v>
       </c>
@@ -27186,7 +27195,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -27194,7 +27203,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>429</v>
       </c>
@@ -27203,7 +27212,7 @@
         <v>4.5167999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>449</v>
       </c>
@@ -27211,7 +27220,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>863</v>
       </c>
@@ -27219,12 +27228,12 @@
         <v>855</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>623</v>
       </c>
@@ -27258,7 +27267,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>623</v>
       </c>
@@ -27270,7 +27279,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>842</v>
       </c>
@@ -27284,7 +27293,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>90</v>
       </c>
@@ -27298,7 +27307,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>92</v>
       </c>
@@ -27312,7 +27321,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -27326,7 +27335,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -27340,7 +27349,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -27354,7 +27363,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>532</v>
       </c>
@@ -27368,7 +27377,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>533</v>
       </c>
@@ -27382,7 +27391,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>94</v>
       </c>
@@ -27396,7 +27405,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>112</v>
       </c>
@@ -27410,7 +27419,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>527</v>
       </c>
@@ -27422,7 +27431,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>528</v>
       </c>
@@ -27436,7 +27445,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>529</v>
       </c>
@@ -27450,7 +27459,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>530</v>
       </c>
@@ -27464,7 +27473,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>531</v>
       </c>
@@ -27478,7 +27487,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>532</v>
       </c>
@@ -27489,7 +27498,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>533</v>
       </c>
@@ -27500,7 +27509,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>114</v>
       </c>
@@ -27511,7 +27520,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="39" t="s">
         <v>115</v>
       </c>
@@ -27524,7 +27533,7 @@
       <c r="H61" s="39"/>
       <c r="I61" s="39"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>542</v>
       </c>
@@ -27535,12 +27544,12 @@
         <v>617</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>615</v>
       </c>
@@ -27551,7 +27560,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="39" t="s">
         <v>547</v>
       </c>
@@ -27564,7 +27573,7 @@
       <c r="H67" s="39"/>
       <c r="I67" s="39"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>126</v>
       </c>
@@ -27572,7 +27581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>125</v>
       </c>
@@ -27580,7 +27589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>335</v>
       </c>
@@ -27588,7 +27597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>158</v>
       </c>
@@ -27596,7 +27605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>339</v>
       </c>
@@ -27604,7 +27613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>336</v>
       </c>
@@ -27612,7 +27621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>337</v>
       </c>
@@ -27620,7 +27629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>338</v>
       </c>
@@ -27628,7 +27637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>340</v>
       </c>
@@ -27636,7 +27645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>341</v>
       </c>
@@ -27644,7 +27653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>342</v>
       </c>
@@ -27652,7 +27661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>127</v>
       </c>
@@ -27663,7 +27672,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>128</v>
       </c>
@@ -27671,7 +27680,7 @@
         <v>0.67700000000000005</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>129</v>
       </c>
@@ -27679,7 +27688,7 @@
         <v>4.43</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>130</v>
       </c>
@@ -27687,7 +27696,7 @@
         <v>4.43</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>131</v>
       </c>
@@ -27695,7 +27704,7 @@
         <v>0.377</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>132</v>
       </c>
@@ -27703,7 +27712,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>325</v>
       </c>
@@ -27711,7 +27720,7 @@
         <v>0.72899999999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>133</v>
       </c>
@@ -27719,7 +27728,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>334</v>
       </c>
@@ -27727,7 +27736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>134</v>
       </c>
@@ -27735,7 +27744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>135</v>
       </c>
@@ -27743,7 +27752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>136</v>
       </c>
@@ -27751,7 +27760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>137</v>
       </c>
@@ -27759,7 +27768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>138</v>
       </c>
@@ -27767,7 +27776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>139</v>
       </c>
@@ -27775,7 +27784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>140</v>
       </c>
@@ -27783,7 +27792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>322</v>
       </c>
@@ -27791,7 +27800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>323</v>
       </c>
@@ -27799,7 +27808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>324</v>
       </c>
@@ -27807,7 +27816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>326</v>
       </c>
@@ -27815,7 +27824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>327</v>
       </c>
@@ -27823,7 +27832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>328</v>
       </c>
@@ -27831,7 +27840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>329</v>
       </c>
@@ -27839,7 +27848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>331</v>
       </c>
@@ -27847,7 +27856,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>332</v>
       </c>
@@ -27855,7 +27864,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>333</v>
       </c>
@@ -27863,7 +27872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" s="39" t="s">
         <v>700</v>
       </c>
@@ -27876,7 +27885,7 @@
       <c r="H112" s="39"/>
       <c r="I112" s="39"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>142</v>
       </c>
@@ -27887,7 +27896,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>144</v>
       </c>
@@ -27898,7 +27907,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>229</v>
       </c>
@@ -27909,7 +27918,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>226</v>
       </c>
@@ -27920,7 +27929,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>222</v>
       </c>
@@ -27931,7 +27940,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>223</v>
       </c>
@@ -27942,7 +27951,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>221</v>
       </c>
@@ -27953,7 +27962,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>224</v>
       </c>
@@ -27964,7 +27973,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>225</v>
       </c>
@@ -27975,7 +27984,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>227</v>
       </c>
@@ -27986,7 +27995,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>919</v>
       </c>
@@ -28000,7 +28009,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>156</v>
       </c>
@@ -28011,7 +28020,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>157</v>
       </c>
@@ -28022,7 +28031,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>159</v>
       </c>
@@ -28033,7 +28042,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>160</v>
       </c>
@@ -28044,7 +28053,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>957</v>
       </c>
@@ -28058,7 +28067,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>968</v>
       </c>
@@ -28069,7 +28078,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4">
       <c r="B137">
         <f>B136/1000</f>
         <v>0.112</v>
@@ -28078,12 +28087,12 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4">
       <c r="A139" s="9" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>978</v>
       </c>
@@ -28094,7 +28103,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>979</v>
       </c>
@@ -28105,7 +28114,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>980</v>
       </c>
@@ -28116,7 +28125,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>981</v>
       </c>
@@ -28127,7 +28136,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>982</v>
       </c>
@@ -28138,7 +28147,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>171</v>
       </c>
@@ -28149,7 +28158,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>1087</v>
       </c>
@@ -28163,12 +28172,12 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4">
       <c r="A148" s="9" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>991</v>
       </c>
@@ -28179,7 +28188,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>178</v>
       </c>
@@ -28190,7 +28199,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>990</v>
       </c>
@@ -28201,12 +28210,12 @@
         <v>921</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4">
       <c r="A153" s="9" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>999</v>
       </c>
@@ -28217,7 +28226,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>218</v>
       </c>
@@ -28228,7 +28237,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>219</v>
       </c>
@@ -28239,12 +28248,12 @@
         <v>921</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4">
       <c r="A158" s="9" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>599</v>
       </c>
@@ -28255,7 +28264,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>1014</v>
       </c>
@@ -28266,7 +28275,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>346</v>
       </c>
@@ -28277,12 +28286,12 @@
         <v>921</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4">
       <c r="A163" s="9" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>610</v>
       </c>
@@ -28293,7 +28302,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>612</v>
       </c>
@@ -28304,7 +28313,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>1029</v>
       </c>
@@ -28319,12 +28328,12 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4">
       <c r="A168" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>602</v>
       </c>
@@ -28335,7 +28344,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>603</v>
       </c>
@@ -28346,7 +28355,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>604</v>
       </c>
@@ -28357,7 +28366,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>605</v>
       </c>
@@ -28368,7 +28377,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>606</v>
       </c>
@@ -28379,7 +28388,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>621</v>
       </c>
@@ -28390,12 +28399,12 @@
         <v>921</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4">
       <c r="A176" s="9" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>1044</v>
       </c>
@@ -28406,7 +28415,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>1045</v>
       </c>
@@ -28417,7 +28426,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>1046</v>
       </c>
@@ -28428,7 +28437,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>1047</v>
       </c>
